--- a/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="343">
   <si>
     <t>土地坐落</t>
   </si>
@@ -753,6 +753,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>台灣水泥股份有限公司</t>
   </si>
   <si>
@@ -799,6 +808,9 @@
   </si>
   <si>
     <t>10,000,000</t>
+  </si>
+  <si>
+    <t>2013-11-01</t>
   </si>
   <si>
     <t>名稱</t>
@@ -4204,13 +4216,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>237</v>
       </c>
@@ -4229,13 +4241,22 @@
       <c r="G1" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>76</v>
@@ -4252,13 +4273,22 @@
       <c r="G2" s="2">
         <v>783640</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>76</v>
@@ -4275,13 +4305,22 @@
       <c r="G3" s="2">
         <v>22440</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>76</v>
@@ -4298,13 +4337,22 @@
       <c r="G4" s="2">
         <v>8110</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>76</v>
@@ -4321,13 +4369,22 @@
       <c r="G5" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>76</v>
@@ -4344,13 +4401,22 @@
       <c r="G6" s="2">
         <v>10420</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>76</v>
@@ -4367,13 +4433,22 @@
       <c r="G7" s="2">
         <v>51400</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>76</v>
@@ -4390,13 +4465,22 @@
       <c r="G8" s="2">
         <v>486230</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>168</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>76</v>
@@ -4411,15 +4495,24 @@
         <v>221</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>169</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>76</v>
@@ -4436,13 +4529,22 @@
       <c r="G10" s="2">
         <v>34590</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>170</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>77</v>
@@ -4459,13 +4561,22 @@
       <c r="G11" s="2">
         <v>274320</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>76</v>
@@ -4480,21 +4591,30 @@
         <v>221</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>260</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
@@ -4503,7 +4623,16 @@
         <v>221</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1713</v>
       </c>
     </row>
   </sheetData>
@@ -4521,19 +4650,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>197</v>
@@ -4544,7 +4673,7 @@
         <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>76</v>
@@ -4577,13 +4706,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4591,10 +4720,10 @@
         <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>76</v>
@@ -4605,10 +4734,10 @@
         <v>198</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>76</v>
@@ -4619,10 +4748,10 @@
         <v>199</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>76</v>
@@ -4633,10 +4762,10 @@
         <v>200</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>76</v>
@@ -4647,10 +4776,10 @@
         <v>201</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>76</v>
@@ -4661,10 +4790,10 @@
         <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>76</v>
@@ -4675,10 +4804,10 @@
         <v>203</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>77</v>
@@ -4689,10 +4818,10 @@
         <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>77</v>
@@ -4703,10 +4832,10 @@
         <v>205</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>77</v>
@@ -4717,10 +4846,10 @@
         <v>206</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>76</v>
@@ -4731,10 +4860,10 @@
         <v>207</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>76</v>
@@ -4745,10 +4874,10 @@
         <v>208</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>76</v>
@@ -4759,10 +4888,10 @@
         <v>209</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>76</v>
@@ -4773,10 +4902,10 @@
         <v>210</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>76</v>
@@ -4787,10 +4916,10 @@
         <v>211</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>77</v>
@@ -4801,10 +4930,10 @@
         <v>212</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>77</v>
@@ -4815,10 +4944,10 @@
         <v>213</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>77</v>
@@ -4829,10 +4958,10 @@
         <v>214</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>77</v>
@@ -4843,10 +4972,10 @@
         <v>215</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>77</v>
@@ -4857,10 +4986,10 @@
         <v>216</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>76</v>
@@ -4871,10 +5000,10 @@
         <v>217</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>76</v>
@@ -4885,10 +5014,10 @@
         <v>218</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>76</v>
@@ -4912,19 +5041,19 @@
         <v>199</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4932,22 +5061,22 @@
         <v>223</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4955,22 +5084,22 @@
         <v>224</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4978,22 +5107,22 @@
         <v>225</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -5011,22 +5140,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5037,19 +5166,19 @@
         <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5060,19 +5189,19 @@
         <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5083,19 +5212,19 @@
         <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E4" s="2">
         <v>800000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5106,19 +5235,19 @@
         <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E5" s="2">
         <v>300000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5129,19 +5258,19 @@
         <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5152,19 +5281,19 @@
         <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E7" s="2">
         <v>120000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5175,19 +5304,19 @@
         <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E8" s="2">
         <v>134580</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5198,19 +5327,19 @@
         <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E9" s="2">
         <v>200000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5221,19 +5350,19 @@
         <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E10" s="2">
         <v>250320</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5244,14 +5373,14 @@
         <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G11" s="2"/>
     </row>

--- a/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="346">
   <si>
     <t>土地坐落</t>
   </si>
@@ -753,6 +753,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -768,28 +771,28 @@
     <t>台塑石化股份有限公司</t>
   </si>
   <si>
-    <t>南亞塑膠工業股份有限公 司</t>
+    <t>南亞塑膠工業股份有限公司</t>
   </si>
   <si>
     <t>永豐餘造紙股份有限公司</t>
   </si>
   <si>
-    <t>台新金融控股股份有限公 司</t>
-  </si>
-  <si>
-    <t>中國信託金融控股股份有 限公司</t>
-  </si>
-  <si>
-    <t>台灣苯乙烯工業股份有限 公司</t>
-  </si>
-  <si>
-    <t>第一金融控股股份有限公 司</t>
+    <t>台新金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>中國信託金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣苯乙烯工業股份有限公司</t>
+  </si>
+  <si>
+    <t>第一金融控股股份有限公司</t>
   </si>
   <si>
     <t>聯華實業股份有限公司</t>
   </si>
   <si>
-    <t>新光合成纖維股份有限公 司</t>
+    <t>新光合成纖維股份有限公司</t>
   </si>
   <si>
     <t>大同股份有限公司</t>
@@ -798,223 +801,229 @@
     <t>亞太電信股份有限公司</t>
   </si>
   <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>2452680</t>
+  </si>
+  <si>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>2013-11-01</t>
+  </si>
+  <si>
+    <t>名稱</t>
+  </si>
+  <si>
+    <t>單位數</t>
+  </si>
+  <si>
+    <t>價額</t>
+  </si>
+  <si>
+    <t>外幣幣別</t>
+  </si>
+  <si>
+    <t>山隆通運股份有限公司</t>
+  </si>
+  <si>
+    <t>保險公司</t>
+  </si>
+  <si>
+    <t>保險名稱</t>
+  </si>
+  <si>
+    <t>要保人</t>
+  </si>
+  <si>
+    <t>新光人壽</t>
+  </si>
+  <si>
+    <t>中華郵政</t>
+  </si>
+  <si>
+    <t>中國人壽</t>
+  </si>
+  <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
+    <t>三商美邦人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>真意終身還本保險</t>
+  </si>
+  <si>
+    <t>百年長青0%終身壽險</t>
+  </si>
+  <si>
+    <t>防癌健康終身保險</t>
+  </si>
+  <si>
+    <t>長福終身壽險</t>
+  </si>
+  <si>
+    <t>金友利保險</t>
+  </si>
+  <si>
+    <t>金福利保險</t>
+  </si>
+  <si>
+    <t>真心終身還本保險</t>
+  </si>
+  <si>
+    <t>防癌健康终身保險</t>
+  </si>
+  <si>
+    <t>郵政簡易人壽步步高升保險</t>
+  </si>
+  <si>
+    <t>新定期壽險</t>
+  </si>
+  <si>
+    <t>新終身壽險</t>
+  </si>
+  <si>
+    <t>新终身壽險</t>
+  </si>
+  <si>
+    <t>富貴保本三福終身</t>
+  </si>
+  <si>
+    <t>美滿人生312終身</t>
+  </si>
+  <si>
+    <t>20年繳費終身壽險(福型）</t>
+  </si>
+  <si>
+    <t>20年繳費盈福養老保險</t>
+  </si>
+  <si>
+    <t>終身還本二年型</t>
+  </si>
+  <si>
+    <t>債權人</t>
+  </si>
+  <si>
+    <t>債務.人及地址</t>
+  </si>
+  <si>
+    <t>餘額</t>
+  </si>
+  <si>
+    <t>取得（發生）時間</t>
+  </si>
+  <si>
+    <t>取得（發生）原因</t>
+  </si>
+  <si>
+    <t>借款</t>
+  </si>
+  <si>
+    <t>隆霖網路科技股份有限公司 彰化縣溪州鄕慶平路30號2 樓</t>
+  </si>
+  <si>
+    <t>隆霖網路科技股份有限公司 彰化縣溪州鄉慶平路30號2 樓</t>
+  </si>
+  <si>
+    <t>全家福通訊科技股份有限公 司 彰化縣溪州鄉中山路3段 270巷11號1樓</t>
+  </si>
+  <si>
+    <t>75’000，000</t>
+  </si>
+  <si>
+    <t>342，200，000</t>
+  </si>
+  <si>
+    <t>791，500，000</t>
+  </si>
+  <si>
+    <t>98年07月 27日</t>
+  </si>
+  <si>
+    <t>102年10月 28日</t>
+  </si>
+  <si>
+    <t>102年09月 11曰</t>
+  </si>
+  <si>
+    <t>借貸</t>
+  </si>
+  <si>
+    <t>股東往來</t>
+  </si>
+  <si>
+    <t>投資人</t>
+  </si>
+  <si>
+    <t>投資事業名稱</t>
+  </si>
+  <si>
+    <t>投資事業地址</t>
+  </si>
+  <si>
+    <t>投資金額</t>
+  </si>
+  <si>
+    <t>任豐企業股份有限公司</t>
+  </si>
+  <si>
+    <t>聯華電信股份有限公司</t>
+  </si>
+  <si>
+    <t>埤頭液化煤氣行</t>
+  </si>
+  <si>
+    <t>豐宜實業股份有限公司</t>
+  </si>
+  <si>
+    <t>六八煤氣行</t>
+  </si>
+  <si>
+    <t>全家福通訊科技股份有限公 司</t>
+  </si>
+  <si>
+    <t>威寶電信股份有限公司</t>
+  </si>
+  <si>
+    <t>彰化縣西德里舜耕路47號</t>
+  </si>
+  <si>
+    <t>臺北市舊宗路2段105號4 樓</t>
+  </si>
+  <si>
+    <t>彰化縣復興路12號</t>
+  </si>
+  <si>
+    <t>高雄市崙北巷1-1號</t>
+  </si>
+  <si>
+    <t>彰化縣慶平路83號</t>
+  </si>
+  <si>
+    <t>彰化縣中山路3段270巷11 號1樓</t>
+  </si>
+  <si>
+    <t>臺北市南京東路五段99號 10樓 •</t>
+  </si>
+  <si>
+    <t>臺北市南京東路五段99號</t>
+  </si>
+  <si>
+    <t>1,600,000</t>
+  </si>
+  <si>
     <t>1,000,000</t>
-  </si>
-  <si>
-    <t>2,452,680</t>
-  </si>
-  <si>
-    <t>2,000,000</t>
-  </si>
-  <si>
-    <t>10,000,000</t>
-  </si>
-  <si>
-    <t>2013-11-01</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>山隆通運股份有限公司</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>新光人壽</t>
-  </si>
-  <si>
-    <t>中華郵政</t>
-  </si>
-  <si>
-    <t>中國人壽</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>三商美邦人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>真意終身還本保險</t>
-  </si>
-  <si>
-    <t>百年長青0%終身壽險</t>
-  </si>
-  <si>
-    <t>防癌健康終身保險</t>
-  </si>
-  <si>
-    <t>長福終身壽險</t>
-  </si>
-  <si>
-    <t>金友利保險</t>
-  </si>
-  <si>
-    <t>金福利保險</t>
-  </si>
-  <si>
-    <t>真心終身還本保險</t>
-  </si>
-  <si>
-    <t>防癌健康终身保險</t>
-  </si>
-  <si>
-    <t>郵政簡易人壽步步高升保險</t>
-  </si>
-  <si>
-    <t>新定期壽險</t>
-  </si>
-  <si>
-    <t>新終身壽險</t>
-  </si>
-  <si>
-    <t>新终身壽險</t>
-  </si>
-  <si>
-    <t>富貴保本三福終身</t>
-  </si>
-  <si>
-    <t>美滿人生312終身</t>
-  </si>
-  <si>
-    <t>20年繳費終身壽險(福型）</t>
-  </si>
-  <si>
-    <t>20年繳費盈福養老保險</t>
-  </si>
-  <si>
-    <t>終身還本二年型</t>
-  </si>
-  <si>
-    <t>債權人</t>
-  </si>
-  <si>
-    <t>債務.人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
-    <t>借款</t>
-  </si>
-  <si>
-    <t>隆霖網路科技股份有限公司 彰化縣溪州鄕慶平路30號2 樓</t>
-  </si>
-  <si>
-    <t>隆霖網路科技股份有限公司 彰化縣溪州鄉慶平路30號2 樓</t>
-  </si>
-  <si>
-    <t>全家福通訊科技股份有限公 司 彰化縣溪州鄉中山路3段 270巷11號1樓</t>
-  </si>
-  <si>
-    <t>75’000，000</t>
-  </si>
-  <si>
-    <t>342，200，000</t>
-  </si>
-  <si>
-    <t>791，500，000</t>
-  </si>
-  <si>
-    <t>98年07月 27日</t>
-  </si>
-  <si>
-    <t>102年10月 28日</t>
-  </si>
-  <si>
-    <t>102年09月 11曰</t>
-  </si>
-  <si>
-    <t>借貸</t>
-  </si>
-  <si>
-    <t>股東往來</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
-    <t>任豐企業股份有限公司</t>
-  </si>
-  <si>
-    <t>聯華電信股份有限公司</t>
-  </si>
-  <si>
-    <t>埤頭液化煤氣行</t>
-  </si>
-  <si>
-    <t>豐宜實業股份有限公司</t>
-  </si>
-  <si>
-    <t>六八煤氣行</t>
-  </si>
-  <si>
-    <t>全家福通訊科技股份有限公 司</t>
-  </si>
-  <si>
-    <t>威寶電信股份有限公司</t>
-  </si>
-  <si>
-    <t>彰化縣西德里舜耕路47號</t>
-  </si>
-  <si>
-    <t>臺北市舊宗路2段105號4 樓</t>
-  </si>
-  <si>
-    <t>彰化縣復興路12號</t>
-  </si>
-  <si>
-    <t>高雄市崙北巷1-1號</t>
-  </si>
-  <si>
-    <t>彰化縣慶平路83號</t>
-  </si>
-  <si>
-    <t>彰化縣中山路3段270巷11 號1樓</t>
-  </si>
-  <si>
-    <t>臺北市南京東路五段99號 10樓 •</t>
-  </si>
-  <si>
-    <t>臺北市南京東路五段99號</t>
-  </si>
-  <si>
-    <t>1,600,000</t>
   </si>
   <si>
     <t>78年04月 20日</t>
@@ -4216,13 +4225,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>237</v>
       </c>
@@ -4250,13 +4259,16 @@
       <c r="J1" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>76</v>
@@ -4274,21 +4286,24 @@
         <v>783640</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2">
+        <v>264</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>76</v>
@@ -4306,21 +4321,24 @@
         <v>22440</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="2">
+        <v>264</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>76</v>
@@ -4338,21 +4356,24 @@
         <v>8110</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="2">
+        <v>264</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>76</v>
@@ -4370,21 +4391,24 @@
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="2">
+        <v>264</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>76</v>
@@ -4402,21 +4426,24 @@
         <v>10420</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="2">
+        <v>264</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>76</v>
@@ -4434,21 +4461,24 @@
         <v>51400</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="2">
+        <v>264</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>76</v>
@@ -4466,21 +4496,24 @@
         <v>486230</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="2">
+        <v>264</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>168</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>76</v>
@@ -4495,24 +4528,27 @@
         <v>221</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="2">
+        <v>264</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>169</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>76</v>
@@ -4530,21 +4566,24 @@
         <v>34590</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="2">
+        <v>264</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>170</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>77</v>
@@ -4562,21 +4601,24 @@
         <v>274320</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="2">
+        <v>264</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>76</v>
@@ -4591,30 +4633,33 @@
         <v>221</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="2">
+        <v>264</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
@@ -4623,15 +4668,18 @@
         <v>221</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="2">
+        <v>264</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="2">
         <v>1713</v>
       </c>
     </row>
@@ -4650,19 +4698,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>197</v>
@@ -4673,7 +4721,7 @@
         <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>76</v>
@@ -4706,13 +4754,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4720,10 +4768,10 @@
         <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>76</v>
@@ -4734,10 +4782,10 @@
         <v>198</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>76</v>
@@ -4748,10 +4796,10 @@
         <v>199</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>76</v>
@@ -4762,10 +4810,10 @@
         <v>200</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>76</v>
@@ -4776,10 +4824,10 @@
         <v>201</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>76</v>
@@ -4790,10 +4838,10 @@
         <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>76</v>
@@ -4804,10 +4852,10 @@
         <v>203</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>77</v>
@@ -4818,10 +4866,10 @@
         <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>77</v>
@@ -4832,10 +4880,10 @@
         <v>205</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>77</v>
@@ -4846,10 +4894,10 @@
         <v>206</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>76</v>
@@ -4860,10 +4908,10 @@
         <v>207</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>76</v>
@@ -4874,10 +4922,10 @@
         <v>208</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>76</v>
@@ -4888,10 +4936,10 @@
         <v>209</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>76</v>
@@ -4902,10 +4950,10 @@
         <v>210</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>76</v>
@@ -4916,10 +4964,10 @@
         <v>211</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>77</v>
@@ -4930,10 +4978,10 @@
         <v>212</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>77</v>
@@ -4944,10 +4992,10 @@
         <v>213</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>77</v>
@@ -4958,10 +5006,10 @@
         <v>214</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>77</v>
@@ -4972,10 +5020,10 @@
         <v>215</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>77</v>
@@ -4986,10 +5034,10 @@
         <v>216</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>76</v>
@@ -5000,10 +5048,10 @@
         <v>217</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>76</v>
@@ -5014,10 +5062,10 @@
         <v>218</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>76</v>
@@ -5041,19 +5089,19 @@
         <v>199</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5061,22 +5109,22 @@
         <v>223</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5084,22 +5132,22 @@
         <v>224</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5107,22 +5155,22 @@
         <v>225</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -5140,22 +5188,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5166,19 +5214,19 @@
         <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5189,19 +5237,19 @@
         <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5212,19 +5260,19 @@
         <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E4" s="2">
         <v>800000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5235,19 +5283,19 @@
         <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E5" s="2">
         <v>300000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5258,19 +5306,19 @@
         <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>258</v>
+        <v>333</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5281,19 +5329,19 @@
         <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E7" s="2">
         <v>120000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5304,19 +5352,19 @@
         <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E8" s="2">
         <v>134580</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5327,19 +5375,19 @@
         <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E9" s="2">
         <v>200000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5350,19 +5398,19 @@
         <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E10" s="2">
         <v>250320</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5373,14 +5421,14 @@
         <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G11" s="2"/>
     </row>

--- a/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="351">
   <si>
     <t>土地坐落</t>
   </si>
@@ -756,6 +756,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -765,6 +768,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>台灣水泥股份有限公司</t>
   </si>
   <si>
@@ -816,7 +825,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-11-01</t>
+  </si>
+  <si>
+    <t>tmp4cfc1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -4225,13 +4240,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>237</v>
       </c>
@@ -4262,13 +4277,22 @@
       <c r="K1" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>76</v>
@@ -4286,24 +4310,33 @@
         <v>783640</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="2">
+        <v>268</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="N2" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>76</v>
@@ -4321,24 +4354,33 @@
         <v>22440</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="2">
+        <v>268</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="N3" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>76</v>
@@ -4356,24 +4398,33 @@
         <v>8110</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="2">
+        <v>268</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="N4" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>76</v>
@@ -4391,24 +4442,33 @@
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" s="2">
+        <v>268</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="N5" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>76</v>
@@ -4426,24 +4486,33 @@
         <v>10420</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="2">
+        <v>268</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="N6" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>76</v>
@@ -4461,24 +4530,33 @@
         <v>51400</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="2">
+        <v>268</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="N7" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>76</v>
@@ -4496,24 +4574,33 @@
         <v>486230</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="2">
+        <v>268</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="N8" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>168</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>76</v>
@@ -4528,27 +4615,36 @@
         <v>221</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="2">
+        <v>268</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="N9" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>169</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>76</v>
@@ -4566,24 +4662,33 @@
         <v>34590</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" s="2">
+        <v>268</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="N10" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>170</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>77</v>
@@ -4601,24 +4706,33 @@
         <v>274320</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="2">
+        <v>268</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="N11" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>76</v>
@@ -4633,33 +4747,42 @@
         <v>221</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K12" s="2">
+        <v>268</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="N12" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
@@ -4668,19 +4791,28 @@
         <v>221</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="2">
+        <v>268</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="2">
         <v>1713</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="N13" s="2">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4698,19 +4830,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>197</v>
@@ -4721,7 +4853,7 @@
         <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>76</v>
@@ -4754,13 +4886,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4768,10 +4900,10 @@
         <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>76</v>
@@ -4782,10 +4914,10 @@
         <v>198</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>76</v>
@@ -4796,10 +4928,10 @@
         <v>199</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>76</v>
@@ -4810,10 +4942,10 @@
         <v>200</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>76</v>
@@ -4824,10 +4956,10 @@
         <v>201</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>76</v>
@@ -4838,10 +4970,10 @@
         <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>76</v>
@@ -4852,10 +4984,10 @@
         <v>203</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>77</v>
@@ -4866,10 +4998,10 @@
         <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>77</v>
@@ -4880,10 +5012,10 @@
         <v>205</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>77</v>
@@ -4894,10 +5026,10 @@
         <v>206</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>76</v>
@@ -4908,10 +5040,10 @@
         <v>207</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>76</v>
@@ -4922,10 +5054,10 @@
         <v>208</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>76</v>
@@ -4936,10 +5068,10 @@
         <v>209</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>76</v>
@@ -4950,10 +5082,10 @@
         <v>210</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>76</v>
@@ -4964,10 +5096,10 @@
         <v>211</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>77</v>
@@ -4978,10 +5110,10 @@
         <v>212</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>77</v>
@@ -4992,10 +5124,10 @@
         <v>213</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>77</v>
@@ -5006,10 +5138,10 @@
         <v>214</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>77</v>
@@ -5020,10 +5152,10 @@
         <v>215</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>77</v>
@@ -5034,10 +5166,10 @@
         <v>216</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>76</v>
@@ -5048,10 +5180,10 @@
         <v>217</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>76</v>
@@ -5062,10 +5194,10 @@
         <v>218</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>76</v>
@@ -5089,19 +5221,19 @@
         <v>199</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5109,22 +5241,22 @@
         <v>223</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5132,22 +5264,22 @@
         <v>224</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5155,22 +5287,22 @@
         <v>225</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -5188,22 +5320,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5214,19 +5346,19 @@
         <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5237,19 +5369,19 @@
         <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5260,19 +5392,19 @@
         <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E4" s="2">
         <v>800000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5283,19 +5415,19 @@
         <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="E5" s="2">
         <v>300000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5306,19 +5438,19 @@
         <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5329,19 +5461,19 @@
         <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E7" s="2">
         <v>120000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5352,19 +5484,19 @@
         <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E8" s="2">
         <v>134580</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5375,19 +5507,19 @@
         <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E9" s="2">
         <v>200000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5398,19 +5530,19 @@
         <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E10" s="2">
         <v>250320</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5421,14 +5553,14 @@
         <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G11" s="2"/>
     </row>

--- a/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
@@ -22,9 +22,468 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="351">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="346">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段00460000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段00460001地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉瓦厝段02820000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉瓦厝段02820001地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉忠孝段07960000地號</t>
+  </si>
+  <si>
+    <t>臺北市中山區榮星段六小段01170000地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮中央段05680000地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮中央段05690000地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮中央段05720000地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮中央段05730000地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段01110000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉湄洲段00330000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉育善段08650000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段06920000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段06930006地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段06930010地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段06930012地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段06930016地號</t>
+  </si>
+  <si>
+    <t>彰化縣埤頭鄉芙朝段04320001地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02240000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02250000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02280000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02420000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02510000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02520000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02530000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02640000地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730000地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730001地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730003地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730004地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730007地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730008地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730009地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730010地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730011地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730012地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730013地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730014地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730015地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730016地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730017地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730018地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730019地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730020地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730021地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730022地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730023地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730024地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730025地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730026地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730027地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730028地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730029地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730030地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730031地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730032地號</t>
+  </si>
+  <si>
+    <t>彰化縣北斗鎮光復段07140000地號</t>
+  </si>
+  <si>
+    <t>彰化縣北斗鎮光復段07150000地號</t>
+  </si>
+  <si>
+    <t>彰化縣北斗鎮光復段07160000地號</t>
+  </si>
+  <si>
+    <t>2227.81</t>
+  </si>
+  <si>
+    <t>1073.71</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>254分之25</t>
+  </si>
+  <si>
+    <t>10000分之166</t>
+  </si>
+  <si>
+    <t>64分之17</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>2023分之163</t>
+  </si>
+  <si>
+    <t>3分之1</t>
+  </si>
+  <si>
+    <t>鄭汝芬</t>
+  </si>
+  <si>
+    <t>謝新隆</t>
+  </si>
+  <si>
+    <t>82年04月29日</t>
+  </si>
+  <si>
+    <t>81年07月07日</t>
+  </si>
+  <si>
+    <t>82年07月06日</t>
+  </si>
+  <si>
+    <t>74年10月24日</t>
+  </si>
+  <si>
+    <t>98年10月30日</t>
+  </si>
+  <si>
+    <t>87年02月20日</t>
+  </si>
+  <si>
+    <t>80年12月10日</t>
+  </si>
+  <si>
+    <t>81年12月</t>
+  </si>
+  <si>
+    <t>91年08月07日</t>
+  </si>
+  <si>
+    <t>98年05月04日</t>
+  </si>
+  <si>
+    <t>101年11月12曰</t>
+  </si>
+  <si>
+    <t>100年08月03曰</t>
+  </si>
+  <si>
+    <t>100年08月03日</t>
+  </si>
+  <si>
+    <t>101年04月16曰</t>
+  </si>
+  <si>
+    <t>101年04</t>
+  </si>
+  <si>
+    <t>101年07月12曰</t>
+  </si>
+  <si>
+    <t>102年06月13曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>地籍圖修正測量</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>共有物分割</t>
+  </si>
+  <si>
+    <t>持分分割</t>
+  </si>
+  <si>
+    <t>1984095(超過五年）</t>
+  </si>
+  <si>
+    <t>2108088(超過五年）</t>
+  </si>
+  <si>
+    <t>62825(超過五年）</t>
+  </si>
+  <si>
+    <t>4243701(超過五年）</t>
+  </si>
+  <si>
+    <t>1448000(超過五年）</t>
+  </si>
+  <si>
+    <t>7832544(超過五年）</t>
+  </si>
+  <si>
+    <t>51239630(超過五年）</t>
+  </si>
+  <si>
+    <t>3106610(超過五年）</t>
+  </si>
+  <si>
+    <t>2036190(超過五年）</t>
+  </si>
+  <si>
+    <t>24695330(超過五年）</t>
+  </si>
+  <si>
+    <t>2742193(超過五年）</t>
+  </si>
+  <si>
+    <t>1886400(超過五年）</t>
+  </si>
+  <si>
+    <t>2146497(超過五年）</t>
+  </si>
+  <si>
+    <t>244266(超過五年）</t>
+  </si>
+  <si>
+    <t>882924(超過五年）</t>
+  </si>
+  <si>
+    <t>747960(超過五年）</t>
+  </si>
+  <si>
+    <t>768798(超過五年）</t>
+  </si>
+  <si>
+    <t>2108967(超過五年）</t>
+  </si>
+  <si>
+    <t>1206000</t>
+  </si>
+  <si>
+    <t>1069721</t>
+  </si>
+  <si>
+    <t>2327880</t>
+  </si>
+  <si>
+    <t>2111280</t>
+  </si>
+  <si>
+    <t>1770800</t>
+  </si>
+  <si>
+    <t>1814690</t>
+  </si>
+  <si>
+    <t>2301660</t>
+  </si>
+  <si>
+    <t>1314420</t>
+  </si>
+  <si>
+    <t>1170020</t>
+  </si>
+  <si>
+    <t>1235000</t>
+  </si>
+  <si>
+    <t>1252860</t>
+  </si>
+  <si>
+    <t>2535170</t>
+  </si>
+  <si>
+    <t>1241840</t>
+  </si>
+  <si>
+    <t>1351470</t>
+  </si>
+  <si>
+    <t>1394600</t>
+  </si>
+  <si>
+    <t>1437160</t>
+  </si>
+  <si>
+    <t>1462430</t>
+  </si>
+  <si>
+    <t>1433360</t>
+  </si>
+  <si>
+    <t>1400870</t>
+  </si>
+  <si>
+    <t>1368380</t>
+  </si>
+  <si>
+    <t>1405430</t>
+  </si>
+  <si>
+    <t>7005680</t>
+  </si>
+  <si>
+    <t>6591624</t>
+  </si>
+  <si>
+    <t>21038600</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-11-01</t>
+  </si>
+  <si>
+    <t>tmp4cfc1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -36,7 +495,7 @@
     <t>所有權人</t>
   </si>
   <si>
-    <t>登記（取'得）時間</t>
+    <t>登記（取得）時間</t>
   </si>
   <si>
     <t>登記（取得）原因</t>
@@ -45,481 +504,61 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>彰化縣溪州鄉進樂段0046 - 0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0046-0001 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉瓦厝段0282-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉瓦厝段0282-0001 地號 -</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉忠孝段0796-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中山區榮星段六小段 0117-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮中央段0568-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮中央段0569 - 0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮中央段0572-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮中央段0573 - 0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段0111-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉湄洲段0033-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉育善段0865 - 0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段0692-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段0693- 0006 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段0693-0010 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段0693-0012 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段0693-0016 地號</t>
-  </si>
-  <si>
-    <t>彰化縣埤頭鄉芙朝段0432-0001 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0224-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0225-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0228-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0242-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0251-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0252-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0253-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0264-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573 - 0001 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573-0003 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573-0004 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573-0007 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573-0008 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573-0009 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573-0010 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573-0011 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573-0012 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573-0013 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573 - 0014 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573-0015 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573-0016 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573 - 0017 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573 - 0018 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573-0019 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573 - 0020 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573-0021 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573-0022 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573 - 0023 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573-0024 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573 - 0025 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573 - 0026 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573-0027 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573 - 0028 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573 - 0029 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573 - 0030 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573-0031 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573-0032 地號</t>
-  </si>
-  <si>
-    <t>彰化縣北斗鎮光復段0714-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣北斗鎮光復段0715-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣北斗鎮光復段0716-0000 地號</t>
-  </si>
-  <si>
-    <t>2,227.81</t>
-  </si>
-  <si>
-    <t>1,073.71</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>254分之25</t>
-  </si>
-  <si>
-    <t>10000分之 166</t>
-  </si>
-  <si>
-    <t>64分之17</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>2023分之 163</t>
-  </si>
-  <si>
-    <t>3分之1</t>
-  </si>
-  <si>
-    <t>鄭汝芬</t>
-  </si>
-  <si>
-    <t>謝新隆</t>
-  </si>
-  <si>
-    <t>謝新隆'</t>
-  </si>
-  <si>
-    <t>82年04月 29日</t>
-  </si>
-  <si>
-    <t>81年07月 07日</t>
-  </si>
-  <si>
-    <t>82年07月 06日</t>
-  </si>
-  <si>
-    <t>74年10月 24日</t>
-  </si>
-  <si>
-    <t>98年10月 30日</t>
-  </si>
-  <si>
-    <t>87年02月 20日</t>
-  </si>
-  <si>
-    <t>80年12月 10日</t>
-  </si>
-  <si>
-    <t>81年12月</t>
-  </si>
-  <si>
-    <t>91年08月 07日</t>
-  </si>
-  <si>
-    <t>98年05月 04日</t>
-  </si>
-  <si>
-    <t>101 年 11 月12曰</t>
-  </si>
-  <si>
-    <t>100 年 08 月03曰</t>
-  </si>
-  <si>
-    <t>100 年 08 月03日</t>
-  </si>
-  <si>
-    <t>101 年 04 月16曰</t>
-  </si>
-  <si>
-    <t>101 年 04</t>
-  </si>
-  <si>
-    <t>101 年 07 月12曰-</t>
-  </si>
-  <si>
-    <t>101 年 07 月12曰</t>
-  </si>
-  <si>
-    <t>102 年 06 月13曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>地籍圖修 正測量</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>共有物分 割</t>
-  </si>
-  <si>
-    <t>持分分割</t>
-  </si>
-  <si>
-    <t>1，984，095(超 過五年）</t>
-  </si>
-  <si>
-    <t>2,108,088(超 過五年）</t>
-  </si>
-  <si>
-    <t>62，825 (超過五 年）</t>
-  </si>
-  <si>
-    <t>4，243，701(超 過五年）</t>
-  </si>
-  <si>
-    <t>1,448,000(超 過五年）</t>
-  </si>
-  <si>
-    <t>7，832,544(超 過五年）</t>
-  </si>
-  <si>
-    <t>51，239，630(超 過五年）</t>
-  </si>
-  <si>
-    <t>3,106，610(超 過五年）</t>
-  </si>
-  <si>
-    <t>2，036，190(超 過五年）</t>
-  </si>
-  <si>
-    <t>24，695，330(超 過五年）</t>
-  </si>
-  <si>
-    <t>2,742，193(超 過五年）</t>
-  </si>
-  <si>
-    <t>1，886，400(超 過五年）</t>
-  </si>
-  <si>
-    <t>2，146，497(超 過五年）</t>
-  </si>
-  <si>
-    <t>244，266(超過 五年）</t>
-  </si>
-  <si>
-    <t>882,924(超過 五年）</t>
-  </si>
-  <si>
-    <t>747，960(超過 五年）</t>
-  </si>
-  <si>
-    <t>768，798(超過 五年）</t>
-  </si>
-  <si>
-    <t>2，108，967(超 過五年）</t>
-  </si>
-  <si>
-    <t>1’206，000</t>
-  </si>
-  <si>
-    <t>1，069，721</t>
-  </si>
-  <si>
-    <t>2,327,880</t>
-  </si>
-  <si>
-    <t>2,111,280</t>
-  </si>
-  <si>
-    <t>1,770,800</t>
-  </si>
-  <si>
-    <t>1,814,690</t>
-  </si>
-  <si>
-    <t>2,301,660</t>
-  </si>
-  <si>
-    <t>1,314,420</t>
-  </si>
-  <si>
-    <t>1,170,020</t>
-  </si>
-  <si>
-    <t>1,235,000</t>
-  </si>
-  <si>
-    <t>1,235，000</t>
-  </si>
-  <si>
-    <t>1，252，860</t>
-  </si>
-  <si>
-    <t>2,535,170</t>
-  </si>
-  <si>
-    <t>1,241,840</t>
-  </si>
-  <si>
-    <t>1,351,470</t>
-  </si>
-  <si>
-    <t>1,394，600</t>
-  </si>
-  <si>
-    <t>1,437,160</t>
-  </si>
-  <si>
-    <t>1,462，430</t>
-  </si>
-  <si>
-    <t>1,433,360</t>
-  </si>
-  <si>
-    <t>1,400,870</t>
-  </si>
-  <si>
-    <t>1,368,380</t>
-  </si>
-  <si>
-    <t>1，405，430</t>
-  </si>
-  <si>
-    <t>7,005,680</t>
-  </si>
-  <si>
-    <t>6，591，624</t>
-  </si>
-  <si>
-    <t>21,038，600</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段00113-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段00114-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區榮星段六小段 18478-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00023-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00024-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00036-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00037-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00038-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00039-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00040-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00041 -000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段00075-000 建號</t>
+    <t>彰化縣溪州鄉進樂段00113000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段00114000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區榮星段六小段18478000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00023000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00024000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00036000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00037000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00038000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00039000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00040000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00041000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段00075000建號</t>
   </si>
   <si>
     <t>彰化縣溪州鄉中央路3段338號</t>
   </si>
   <si>
-    <t>彰化縣溪州鄉復興段00022-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段00250-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段00249-000 建號</t>
+    <t>彰化縣溪州鄉復興段00022000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段00250000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段00249000建號</t>
   </si>
   <si>
     <t>彰化縣員林鎮中山路1段67號</t>
   </si>
   <si>
-    <t>彰化縣溪州鄉進樂段00063-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉中山路3段270巷 19號</t>
+    <t>彰化縣溪州鄉進樂段00063000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉中山路3段270巷19號</t>
   </si>
   <si>
     <t>彰化縣溪州鄉進興路2巷5號</t>
@@ -528,70 +567,61 @@
     <t>彰化縣溪州鄉進興路2巷7號</t>
   </si>
   <si>
-    <t>100000 分 之 25000</t>
-  </si>
-  <si>
-    <t>92年09月 19日</t>
-  </si>
-  <si>
-    <t>73年12月 31日</t>
-  </si>
-  <si>
-    <t>87年02月 20 0</t>
-  </si>
-  <si>
-    <t>98年07月 30日</t>
-  </si>
-  <si>
-    <t>98年06月 26日</t>
-  </si>
-  <si>
-    <t>99年02月 25日</t>
+    <t>100000分之25000</t>
+  </si>
+  <si>
+    <t>92年09月19日</t>
+  </si>
+  <si>
+    <t>73年12月31日</t>
+  </si>
+  <si>
+    <t>87年02月200</t>
+  </si>
+  <si>
+    <t>98年07月30日</t>
+  </si>
+  <si>
+    <t>98年06月26日</t>
+  </si>
+  <si>
+    <t>99年02月25日</t>
   </si>
   <si>
     <t>新建</t>
   </si>
   <si>
-    <t>第一次登 記</t>
-  </si>
-  <si>
-    <t>485，400(超過 五年）</t>
-  </si>
-  <si>
-    <t>521，200(超過 五年）</t>
-  </si>
-  <si>
-    <t>593,200(超過 五年）</t>
-  </si>
-  <si>
-    <t>84,625 (超過 五年）</t>
-  </si>
-  <si>
-    <t>1，099,100(超 過五年）</t>
-  </si>
-  <si>
-    <t>458，600(超過 五年）</t>
-  </si>
-  <si>
-    <t>573’700(超過 五年）</t>
-  </si>
-  <si>
-    <t>458’600(超過 五年）</t>
-  </si>
-  <si>
-    <t>458,600(超過 五年）</t>
-  </si>
-  <si>
-    <t>573，700(超過 五年）</t>
-  </si>
-  <si>
-    <t>372，029(超過 五年）</t>
-  </si>
-  <si>
-    <t>36’266 (超過 五年）</t>
-  </si>
-  <si>
-    <t>164，465(超過 五年）</t>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>485400(超過五年）</t>
+  </si>
+  <si>
+    <t>521200(超過五年）</t>
+  </si>
+  <si>
+    <t>593200(超過五年）</t>
+  </si>
+  <si>
+    <t>84625(超過五年）</t>
+  </si>
+  <si>
+    <t>1099100(超過五年）</t>
+  </si>
+  <si>
+    <t>458600(超過五年）</t>
+  </si>
+  <si>
+    <t>573700(超過五年）</t>
+  </si>
+  <si>
+    <t>372029(超過五年）</t>
+  </si>
+  <si>
+    <t>36266(超過五年）</t>
+  </si>
+  <si>
+    <t>164465(超過五年）</t>
   </si>
   <si>
     <t>型式</t>
@@ -606,13 +636,13 @@
     <t>所有.人</t>
   </si>
   <si>
-    <t>幣 別</t>
+    <t>幣別</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>外 幣 總 額</t>
+    <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
@@ -624,12 +654,6 @@
     <t>種類</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
     <t>安泰商業銀行員林分行</t>
   </si>
   <si>
@@ -639,7 +663,7 @@
     <t>第一商業銀行西螺分行</t>
   </si>
   <si>
-    <t>溪州郵局（第3 7支局）</t>
+    <t>溪州郵局（第37支局）</t>
   </si>
   <si>
     <t>彰化商業銀行北斗分行</t>
@@ -648,19 +672,19 @@
     <t>台中商業銀行員林分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行員林分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行松南分 行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行敦南分 行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行員林分 行</t>
-  </si>
-  <si>
-    <t>曰盛國際商業銀行員林分 行</t>
+    <t>中國信託商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行松南分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行敦南分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>曰盛國際商業銀行員林分行</t>
   </si>
   <si>
     <t>臺灣土地銀行員林分行</t>
@@ -669,7 +693,7 @@
     <t>台中商業銀行北斗分行</t>
   </si>
   <si>
-    <t>綜合存•或</t>
+    <t>綜合存或</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -693,52 +717,46 @@
     <t>美金</t>
   </si>
   <si>
-    <t>1,403.01</t>
-  </si>
-  <si>
-    <t>1,040,273</t>
-  </si>
-  <si>
-    <t>3,052,811</t>
-  </si>
-  <si>
-    <t>2，348，779</t>
-  </si>
-  <si>
-    <t>1’034，227</t>
-  </si>
-  <si>
-    <t>21,856,803</t>
-  </si>
-  <si>
-    <t>7,585,390</t>
-  </si>
-  <si>
-    <t>28,392,758</t>
-  </si>
-  <si>
-    <t>1,364,309</t>
-  </si>
-  <si>
-    <t>17,093.70</t>
-  </si>
-  <si>
-    <t>62,537,235</t>
-  </si>
-  <si>
-    <t>17,900,829</t>
-  </si>
-  <si>
-    <t>31，944</t>
-  </si>
-  <si>
-    <t>41,529.09</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>1403.01</t>
+  </si>
+  <si>
+    <t>1040273</t>
+  </si>
+  <si>
+    <t>3052811</t>
+  </si>
+  <si>
+    <t>2348779</t>
+  </si>
+  <si>
+    <t>1034227</t>
+  </si>
+  <si>
+    <t>21856803</t>
+  </si>
+  <si>
+    <t>7585390</t>
+  </si>
+  <si>
+    <t>28392758</t>
+  </si>
+  <si>
+    <t>1364309</t>
+  </si>
+  <si>
+    <t>17093.70</t>
+  </si>
+  <si>
+    <t>62537235</t>
+  </si>
+  <si>
+    <t>17900829</t>
+  </si>
+  <si>
+    <t>31944</t>
+  </si>
+  <si>
+    <t>41529.09</t>
   </si>
   <si>
     <t>quantity</t>
@@ -753,27 +771,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>台灣水泥股份有限公司</t>
   </si>
   <si>
@@ -825,15 +822,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-11-01</t>
-  </si>
-  <si>
-    <t>tmp4cfc1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -945,31 +933,31 @@
     <t>借款</t>
   </si>
   <si>
-    <t>隆霖網路科技股份有限公司 彰化縣溪州鄕慶平路30號2 樓</t>
-  </si>
-  <si>
-    <t>隆霖網路科技股份有限公司 彰化縣溪州鄉慶平路30號2 樓</t>
-  </si>
-  <si>
-    <t>全家福通訊科技股份有限公 司 彰化縣溪州鄉中山路3段 270巷11號1樓</t>
-  </si>
-  <si>
-    <t>75’000，000</t>
-  </si>
-  <si>
-    <t>342，200，000</t>
-  </si>
-  <si>
-    <t>791，500，000</t>
-  </si>
-  <si>
-    <t>98年07月 27日</t>
-  </si>
-  <si>
-    <t>102年10月 28日</t>
-  </si>
-  <si>
-    <t>102年09月 11曰</t>
+    <t>隆霖網路科技股份有限公司彰化縣溪州鄕慶平路30號2樓</t>
+  </si>
+  <si>
+    <t>隆霖網路科技股份有限公司彰化縣溪州鄉慶平路30號2樓</t>
+  </si>
+  <si>
+    <t>全家福通訊科技股份有限公司彰化縣溪州鄉中山路3段270巷11號1樓</t>
+  </si>
+  <si>
+    <t>75000000</t>
+  </si>
+  <si>
+    <t>342200000</t>
+  </si>
+  <si>
+    <t>791500000</t>
+  </si>
+  <si>
+    <t>98年07月27日</t>
+  </si>
+  <si>
+    <t>102年10月28日</t>
+  </si>
+  <si>
+    <t>102年09月11曰</t>
   </si>
   <si>
     <t>借貸</t>
@@ -1005,7 +993,7 @@
     <t>六八煤氣行</t>
   </si>
   <si>
-    <t>全家福通訊科技股份有限公 司</t>
+    <t>全家福通訊科技股份有限公司</t>
   </si>
   <si>
     <t>威寶電信股份有限公司</t>
@@ -1014,55 +1002,52 @@
     <t>彰化縣西德里舜耕路47號</t>
   </si>
   <si>
-    <t>臺北市舊宗路2段105號4 樓</t>
+    <t>臺北市舊宗路2段105號4樓</t>
   </si>
   <si>
     <t>彰化縣復興路12號</t>
   </si>
   <si>
-    <t>高雄市崙北巷1-1號</t>
+    <t>高雄市崙北巷11號</t>
   </si>
   <si>
     <t>彰化縣慶平路83號</t>
   </si>
   <si>
-    <t>彰化縣中山路3段270巷11 號1樓</t>
-  </si>
-  <si>
-    <t>臺北市南京東路五段99號 10樓 •</t>
+    <t>彰化縣中山路3段270巷11號1樓</t>
+  </si>
+  <si>
+    <t>臺北市南京東路五段99號10樓</t>
   </si>
   <si>
     <t>臺北市南京東路五段99號</t>
   </si>
   <si>
-    <t>1,600,000</t>
-  </si>
-  <si>
-    <t>1,000,000</t>
-  </si>
-  <si>
-    <t>78年04月 20日</t>
-  </si>
-  <si>
-    <t>94年01月 13曰</t>
-  </si>
-  <si>
-    <t>72年04月 18日</t>
-  </si>
-  <si>
-    <t>86年02月 19日</t>
-  </si>
-  <si>
-    <t>91年10月 23日</t>
-  </si>
-  <si>
-    <t>74年04月 20日</t>
-  </si>
-  <si>
-    <t>98年05月 19日</t>
-  </si>
-  <si>
-    <t>100年12月 14日</t>
+    <t>1600000</t>
+  </si>
+  <si>
+    <t>78年04月20日</t>
+  </si>
+  <si>
+    <t>94年01月13曰</t>
+  </si>
+  <si>
+    <t>72年04月18日</t>
+  </si>
+  <si>
+    <t>86年02月19日</t>
+  </si>
+  <si>
+    <t>91年10月23日</t>
+  </si>
+  <si>
+    <t>74年04月20日</t>
+  </si>
+  <si>
+    <t>98年05月19日</t>
+  </si>
+  <si>
+    <t>100年12月14日</t>
   </si>
   <si>
     <t>100年12月</t>
@@ -1433,13 +1418,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1461,1565 +1446,2846 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>95.85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>101.84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>491</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>28744</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>1448</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>1966</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>135.07</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>88.53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>389.98</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>3144</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>267.81</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O15" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>127.96</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>108.4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>111.42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>208.85</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>1005</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O20" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>10.07</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H21" s="2">
         <v>167243</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O21" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>40.69</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H22" s="2">
         <v>675780</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O22" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>18.69</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H23" s="2">
         <v>310404</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O23" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
         <v>64.41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O24" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2">
         <v>5.78</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H25" s="2">
         <v>95994</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O25" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2">
         <v>39.58</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H26" s="2">
         <v>657345</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O26" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2">
         <v>36.67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H27" s="2">
         <v>609015</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O27" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2">
         <v>29.68</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H28" s="2">
         <v>492925</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O28" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2">
         <v>122.52</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O29" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2">
         <v>112.12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O30" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2">
         <v>93.2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O31" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2">
         <v>95.51</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O32" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C33" s="2">
         <v>121.14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O33" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>50</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2">
         <v>69.18</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O34" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C35" s="2">
         <v>61.58</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O35" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>52</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2">
         <v>65</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O36" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2">
         <v>65</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O37" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>54</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2">
         <v>65</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O38" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C39" s="2">
         <v>65</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O39" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C40" s="2">
         <v>65</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O40" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C41" s="2">
         <v>65</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O41" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>58</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C42" s="2">
         <v>65</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O42" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>59</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C43" s="2">
         <v>65.94</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O43" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>60</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2">
         <v>133.43</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O44" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2">
         <v>65.36</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O45" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2">
         <v>71.13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O46" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>63</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2">
         <v>73.4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O47" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1">
         <v>64</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2">
         <v>75.64</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M48" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O48" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
         <v>65</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2">
         <v>76.97</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M49" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O49" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1">
         <v>66</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2">
         <v>75.44</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O50" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1">
         <v>67</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2">
         <v>73.73</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M51" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O51" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1">
         <v>68</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2">
         <v>72.02</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M52" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O52" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1">
         <v>71</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2">
         <v>73.97</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M53" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O53" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1">
         <v>72</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2">
         <v>368.72</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O54" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1">
         <v>73</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2">
         <v>11.45</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H55" s="2">
         <v>217550</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M55" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O55" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1">
         <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2">
         <v>3.42</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H56" s="2">
         <v>64980</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M56" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O56" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1">
         <v>75</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2">
         <v>13.42</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H57" s="2">
         <v>254980</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M57" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O57" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1">
         <v>76</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2">
         <v>3.87</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H58" s="2">
         <v>73530</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M58" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O58" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1">
         <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2">
         <v>49</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H59" s="2">
         <v>715400</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M59" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O59" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1">
         <v>78</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2">
         <v>444</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M60" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O60" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1">
         <v>79</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2">
         <v>1441</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M61" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O61" s="2">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3037,25 +4303,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3063,25 +4329,25 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2">
         <v>215.58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3089,25 +4355,25 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2">
         <v>229.74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3115,25 +4381,25 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C4" s="2">
         <v>146.2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3141,25 +4407,25 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C5" s="2">
         <v>41.62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3167,25 +4433,25 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C6" s="2">
         <v>145.87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3193,25 +4459,25 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C7" s="2">
         <v>60.89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3219,25 +4485,25 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C8" s="2">
         <v>76.2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3245,25 +4511,25 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C9" s="2">
         <v>60.89</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3271,25 +4537,25 @@
         <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C10" s="2">
         <v>76.2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3297,25 +4563,25 @@
         <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C11" s="2">
         <v>60.89</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3323,25 +4589,25 @@
         <v>95</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C12" s="2">
         <v>76.2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3349,25 +4615,25 @@
         <v>96</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C13" s="2">
         <v>474.2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3375,25 +4641,25 @@
         <v>97</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2">
         <v>307.8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3401,25 +4667,25 @@
         <v>98</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2">
         <v>478.1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3427,22 +4693,22 @@
         <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2">
         <v>399.9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="H16" s="2">
         <v>187900</v>
@@ -3453,22 +4719,22 @@
         <v>100</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C17" s="2">
         <v>256.14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="H17" s="2">
         <v>135398</v>
@@ -3479,22 +4745,22 @@
         <v>101</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C18" s="2">
         <v>181.3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H18" s="2">
         <v>90400</v>
@@ -3505,22 +4771,22 @@
         <v>102</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C19" s="2">
         <v>154</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H19" s="2">
         <v>180400</v>
@@ -3531,22 +4797,22 @@
         <v>103</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C20" s="2">
         <v>105.6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H20" s="2">
         <v>126100</v>
@@ -3557,22 +4823,22 @@
         <v>104</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C21" s="2">
         <v>110.8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H21" s="2">
         <v>126700</v>
@@ -3583,22 +4849,22 @@
         <v>105</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C22" s="2">
         <v>89.7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H22" s="2">
         <v>102700</v>
@@ -3619,16 +4885,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3636,16 +4902,16 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3663,22 +4929,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3686,20 +4952,20 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3707,16 +4973,16 @@
         <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -3728,20 +4994,20 @@
         <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3749,20 +5015,20 @@
         <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3770,20 +5036,20 @@
         <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3791,20 +5057,20 @@
         <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3812,16 +5078,16 @@
         <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -3833,16 +5099,16 @@
         <v>135</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -3854,16 +5120,16 @@
         <v>136</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -3875,20 +5141,20 @@
         <v>137</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3896,20 +5162,20 @@
         <v>138</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3917,20 +5183,20 @@
         <v>139</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3938,16 +5204,16 @@
         <v>140</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -3959,16 +5225,16 @@
         <v>141</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F15" s="2">
         <v>16.8</v>
@@ -3982,22 +5248,22 @@
         <v>142</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F16" s="2">
         <v>577.49</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4005,16 +5271,16 @@
         <v>143</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -4026,20 +5292,20 @@
         <v>144</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4047,20 +5313,20 @@
         <v>145</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4068,16 +5334,16 @@
         <v>146</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -4089,16 +5355,16 @@
         <v>147</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -4110,16 +5376,16 @@
         <v>148</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -4131,16 +5397,16 @@
         <v>149</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -4152,16 +5418,16 @@
         <v>151</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -4173,16 +5439,16 @@
         <v>152</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -4194,20 +5460,20 @@
         <v>153</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4215,22 +5481,22 @@
         <v>154</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -4248,43 +5514,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>238</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>243</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>249</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4292,10 +5558,10 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2">
         <v>78364</v>
@@ -4304,28 +5570,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G2" s="2">
         <v>783640</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L2" s="2">
         <v>1713</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="N2" s="2">
         <v>161</v>
@@ -4336,10 +5602,10 @@
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2">
         <v>2244</v>
@@ -4348,28 +5614,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G3" s="2">
         <v>22440</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L3" s="2">
         <v>1713</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="N3" s="2">
         <v>162</v>
@@ -4380,10 +5646,10 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2">
         <v>811</v>
@@ -4392,28 +5658,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G4" s="2">
         <v>8110</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L4" s="2">
         <v>1713</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="N4" s="2">
         <v>163</v>
@@ -4424,10 +5690,10 @@
         <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -4436,28 +5702,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L5" s="2">
         <v>1713</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="N5" s="2">
         <v>164</v>
@@ -4468,10 +5734,10 @@
         <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2">
         <v>1042</v>
@@ -4480,28 +5746,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G6" s="2">
         <v>10420</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L6" s="2">
         <v>1713</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="N6" s="2">
         <v>165</v>
@@ -4512,10 +5778,10 @@
         <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2">
         <v>5140</v>
@@ -4524,28 +5790,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G7" s="2">
         <v>51400</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L7" s="2">
         <v>1713</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="N7" s="2">
         <v>166</v>
@@ -4556,10 +5822,10 @@
         <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2">
         <v>48623</v>
@@ -4568,28 +5834,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G8" s="2">
         <v>486230</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L8" s="2">
         <v>1713</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="N8" s="2">
         <v>167</v>
@@ -4600,10 +5866,10 @@
         <v>168</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2">
         <v>245268</v>
@@ -4612,28 +5878,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L9" s="2">
         <v>1713</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="N9" s="2">
         <v>168</v>
@@ -4644,10 +5910,10 @@
         <v>169</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2">
         <v>3459</v>
@@ -4656,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G10" s="2">
         <v>34590</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L10" s="2">
         <v>1713</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="N10" s="2">
         <v>169</v>
@@ -4688,10 +5954,10 @@
         <v>170</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2">
         <v>27432</v>
@@ -4700,28 +5966,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G11" s="2">
         <v>274320</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L11" s="2">
         <v>1713</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="N11" s="2">
         <v>170</v>
@@ -4732,10 +5998,10 @@
         <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2">
         <v>200000</v>
@@ -4744,28 +6010,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L12" s="2">
         <v>1713</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="N12" s="2">
         <v>171</v>
@@ -4776,40 +6042,40 @@
         <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L13" s="2">
         <v>1713</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="N13" s="2">
         <v>172</v>
@@ -4830,22 +6096,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4853,10 +6119,10 @@
         <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -4865,7 +6131,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G2" s="2">
         <v>10</v>
@@ -4886,13 +6152,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4900,13 +6166,13 @@
         <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4914,13 +6180,13 @@
         <v>198</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4928,13 +6194,13 @@
         <v>199</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4942,13 +6208,13 @@
         <v>200</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4956,13 +6222,13 @@
         <v>201</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4970,13 +6236,13 @@
         <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4984,13 +6250,13 @@
         <v>203</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4998,13 +6264,13 @@
         <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5012,13 +6278,13 @@
         <v>205</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5026,13 +6292,13 @@
         <v>206</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5040,13 +6306,13 @@
         <v>207</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5054,13 +6320,13 @@
         <v>208</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5068,13 +6334,13 @@
         <v>209</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5082,13 +6348,13 @@
         <v>210</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5096,13 +6362,13 @@
         <v>211</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5110,13 +6376,13 @@
         <v>212</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5124,13 +6390,13 @@
         <v>213</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5138,13 +6404,13 @@
         <v>214</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5152,13 +6418,13 @@
         <v>215</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5166,13 +6432,13 @@
         <v>216</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5180,13 +6446,13 @@
         <v>217</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5194,13 +6460,13 @@
         <v>218</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5218,22 +6484,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5241,22 +6507,22 @@
         <v>223</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5264,22 +6530,22 @@
         <v>224</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5287,22 +6553,22 @@
         <v>225</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -5320,22 +6586,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5343,22 +6609,22 @@
         <v>235</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5366,22 +6632,22 @@
         <v>236</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5389,22 +6655,22 @@
         <v>237</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E4" s="2">
         <v>800000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5412,22 +6678,22 @@
         <v>238</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E5" s="2">
         <v>300000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5435,22 +6701,22 @@
         <v>239</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5458,22 +6724,22 @@
         <v>240</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E7" s="2">
         <v>120000</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5481,22 +6747,22 @@
         <v>241</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E8" s="2">
         <v>134580</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5504,22 +6770,22 @@
         <v>242</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E9" s="2">
         <v>200000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5527,22 +6793,22 @@
         <v>243</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E10" s="2">
         <v>250320</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5550,17 +6816,17 @@
         <v>245</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G11" s="2"/>
     </row>

--- a/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="313">
   <si>
     <t>name</t>
   </si>
@@ -66,7 +66,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>彰化縣溪州鄉進樂段00460000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>彰化縣溪州鄉進樂段00460001地號</t>
@@ -246,12 +249,6 @@
     <t>彰化縣北斗鎮光復段07160000地號</t>
   </si>
   <si>
-    <t>2227.81</t>
-  </si>
-  <si>
-    <t>1073.71</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
@@ -345,9 +342,6 @@
     <t>持分分割</t>
   </si>
   <si>
-    <t>1984095(超過五年）</t>
-  </si>
-  <si>
     <t>2108088(超過五年）</t>
   </si>
   <si>
@@ -483,30 +477,15 @@
     <t>tmp4cfc1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>彰化縣溪州鄉進樂段00113000建號</t>
   </si>
   <si>
+    <t>92年09月19日</t>
+  </si>
+  <si>
+    <t>485400(超過五年）</t>
+  </si>
+  <si>
     <t>彰化縣溪州鄉進樂段00114000建號</t>
   </si>
   <si>
@@ -570,9 +549,6 @@
     <t>100000分之25000</t>
   </si>
   <si>
-    <t>92年09月19日</t>
-  </si>
-  <si>
     <t>73年12月31日</t>
   </si>
   <si>
@@ -594,9 +570,6 @@
     <t>第一次登記</t>
   </si>
   <si>
-    <t>485400(超過五年）</t>
-  </si>
-  <si>
     <t>521200(超過五年）</t>
   </si>
   <si>
@@ -624,18 +597,6 @@
     <t>164465(超過五年）</t>
   </si>
   <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及編號</t>
-  </si>
-  <si>
-    <t>所有.人</t>
-  </si>
-  <si>
     <t>幣別</t>
   </si>
   <si>
@@ -648,15 +609,18 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
     <t>安泰商業銀行員林分行</t>
   </si>
   <si>
+    <t>綜合存或</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>1040273</t>
+  </si>
+  <si>
     <t>聯邦商業銀行員林分行</t>
   </si>
   <si>
@@ -693,9 +657,6 @@
     <t>台中商業銀行北斗分行</t>
   </si>
   <si>
-    <t>綜合存或</t>
-  </si>
-  <si>
     <t>活期存款</t>
   </si>
   <si>
@@ -711,18 +672,12 @@
     <t>中華郵政劃撥儲金</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
     <t>1403.01</t>
   </si>
   <si>
-    <t>1040273</t>
-  </si>
-  <si>
     <t>3052811</t>
   </si>
   <si>
@@ -768,12 +723,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>台灣水泥股份有限公司</t>
-  </si>
-  <si>
     <t>台塑石化股份有限公司</t>
   </si>
   <si>
@@ -822,33 +771,15 @@
     <t>stock</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>山隆通運股份有限公司</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>新光人壽</t>
   </si>
   <si>
+    <t>真意終身還本保險</t>
+  </si>
+  <si>
     <t>中華郵政</t>
   </si>
   <si>
@@ -864,9 +795,6 @@
     <t>富邦人壽</t>
   </si>
   <si>
-    <t>真意終身還本保險</t>
-  </si>
-  <si>
     <t>百年長青0%終身壽險</t>
   </si>
   <si>
@@ -915,72 +843,57 @@
     <t>終身還本二年型</t>
   </si>
   <si>
-    <t>債權人</t>
-  </si>
-  <si>
-    <t>債務.人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>借款</t>
   </si>
   <si>
     <t>隆霖網路科技股份有限公司彰化縣溪州鄕慶平路30號2樓</t>
   </si>
   <si>
+    <t>75000000</t>
+  </si>
+  <si>
+    <t>98年07月27日</t>
+  </si>
+  <si>
+    <t>借貸</t>
+  </si>
+  <si>
     <t>隆霖網路科技股份有限公司彰化縣溪州鄉慶平路30號2樓</t>
   </si>
   <si>
     <t>全家福通訊科技股份有限公司彰化縣溪州鄉中山路3段270巷11號1樓</t>
   </si>
   <si>
-    <t>75000000</t>
-  </si>
-  <si>
     <t>342200000</t>
   </si>
   <si>
     <t>791500000</t>
   </si>
   <si>
-    <t>98年07月27日</t>
-  </si>
-  <si>
     <t>102年10月28日</t>
   </si>
   <si>
     <t>102年09月11曰</t>
   </si>
   <si>
-    <t>借貸</t>
-  </si>
-  <si>
     <t>股東往來</t>
   </si>
   <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
     <t>任豐企業股份有限公司</t>
   </si>
   <si>
+    <t>彰化縣西德里舜耕路47號</t>
+  </si>
+  <si>
+    <t>1600000</t>
+  </si>
+  <si>
+    <t>78年04月20日</t>
+  </si>
+  <si>
+    <t>合資</t>
+  </si>
+  <si>
     <t>聯華電信股份有限公司</t>
   </si>
   <si>
@@ -999,9 +912,6 @@
     <t>威寶電信股份有限公司</t>
   </si>
   <si>
-    <t>彰化縣西德里舜耕路47號</t>
-  </si>
-  <si>
     <t>臺北市舊宗路2段105號4樓</t>
   </si>
   <si>
@@ -1023,12 +933,6 @@
     <t>臺北市南京東路五段99號</t>
   </si>
   <si>
-    <t>1600000</t>
-  </si>
-  <si>
-    <t>78年04月20日</t>
-  </si>
-  <si>
     <t>94年01月13曰</t>
   </si>
   <si>
@@ -1051,9 +955,6 @@
   </si>
   <si>
     <t>100年12月</t>
-  </si>
-  <si>
-    <t>合資</t>
   </si>
   <si>
     <t>合夥</t>
@@ -1418,13 +1319,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1467,207 +1368,237 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>95.85</v>
+        <v>101.84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M2" s="2">
         <v>1713</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>101.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>101.84</v>
+        <v>491</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0984251968503937</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>48.3267716535433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>28744</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>491</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M4" s="2">
         <v>1713</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0984251968503937</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2829.13385826772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>28744</v>
+        <v>1448</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M5" s="2">
         <v>1713</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1448</v>
+        <v>1966</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>83</v>
@@ -1676,48 +1607,54 @@
         <v>87</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M6" s="2">
         <v>1713</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0166</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>32.6356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>1966</v>
+        <v>2227.81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>88</v>
@@ -1726,374 +1663,422 @@
         <v>102</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O7" s="2">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2227.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>135.07</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O8" s="2">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>135.07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>88.53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2">
-        <v>135.07</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O9" s="2">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>88.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1073.71</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2">
-        <v>88.53</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M10" s="2">
         <v>1713</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1073.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>389.98</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M11" s="2">
         <v>1713</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.265625</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>103.5884375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>389.98</v>
+        <v>3144</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M12" s="2">
         <v>1713</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>3144</v>
+        <v>267.81</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M13" s="2">
         <v>1713</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>267.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>267.81</v>
+        <v>103</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M14" s="2">
         <v>1713</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>29</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.0805734058329214</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>8.2990608007909</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C15" s="2">
-        <v>103</v>
+        <v>127.96</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>93</v>
@@ -2102,186 +2087,210 @@
         <v>104</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" s="2">
+        <v>30</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>42.6533333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2">
+        <v>108.4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O15" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2">
-        <v>127.96</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" s="2">
+        <v>31</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>36.1333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2">
+        <v>111.42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O16" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="2">
-        <v>108.4</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" s="2">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>37.14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2">
+        <v>208.85</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O17" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="2">
-        <v>111.42</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M18" s="2">
         <v>1713</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O18" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>69.6166666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" s="2">
-        <v>208.85</v>
+        <v>1005</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>94</v>
@@ -2290,2002 +2299,2207 @@
         <v>105</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M19" s="2">
         <v>1713</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O19" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" s="2">
-        <v>1005</v>
+        <v>10.07</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
+      </c>
+      <c r="H20" s="2">
+        <v>167243</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M20" s="2">
         <v>1713</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O20" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>35</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C21" s="2">
-        <v>10.07</v>
+        <v>40.69</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H21" s="2">
-        <v>167243</v>
+        <v>675780</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M21" s="2">
         <v>1713</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O21" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>36</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>40.69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C22" s="2">
-        <v>40.69</v>
+        <v>18.69</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H22" s="2">
-        <v>675780</v>
+        <v>310404</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M22" s="2">
         <v>1713</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O22" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>37</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>18.69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C23" s="2">
-        <v>18.69</v>
+        <v>64.41</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="2">
-        <v>310404</v>
+        <v>103</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M23" s="2">
         <v>1713</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O23" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>38</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>64.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C24" s="2">
-        <v>64.41</v>
+        <v>5.78</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
+      </c>
+      <c r="H24" s="2">
+        <v>95994</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M24" s="2">
         <v>1713</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O24" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>39</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C25" s="2">
-        <v>5.78</v>
+        <v>39.58</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H25" s="2">
-        <v>95994</v>
+        <v>657345</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M25" s="2">
         <v>1713</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O25" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>40</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>39.58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C26" s="2">
-        <v>39.58</v>
+        <v>36.67</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H26" s="2">
-        <v>657345</v>
+        <v>609015</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M26" s="2">
         <v>1713</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O26" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>41</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>36.67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C27" s="2">
-        <v>36.67</v>
+        <v>29.68</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H27" s="2">
-        <v>609015</v>
+        <v>492925</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M27" s="2">
         <v>1713</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O27" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>42</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>29.68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C28" s="2">
-        <v>29.68</v>
+        <v>122.52</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>97</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="2">
-        <v>492925</v>
+        <v>105</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M28" s="2">
         <v>1713</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O28" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>43</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>122.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C29" s="2">
-        <v>122.52</v>
+        <v>112.12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O29" s="2">
+        <v>44</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>112.12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1">
+        <v>45</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="2">
+        <v>93.2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M29" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O29" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="1">
-        <v>44</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="2">
-        <v>112.12</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O30" s="2">
+        <v>45</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1">
+        <v>46</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="2">
+        <v>95.51</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M30" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O30" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="1">
-        <v>45</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="2">
-        <v>93.2</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="I31" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M31" s="2">
         <v>1713</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O31" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>46</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>95.51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
+        <v>47</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C32" s="2">
-        <v>95.51</v>
+        <v>121.14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>98</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M32" s="2">
         <v>1713</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O32" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>47</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>121.14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C33" s="2">
-        <v>121.14</v>
+        <v>69.18</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>99</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O33" s="2">
+        <v>50</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>69.18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1">
+        <v>51</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="2">
+        <v>61.58</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M33" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O33" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="1">
+      <c r="I34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O34" s="2">
+        <v>51</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>61.58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1">
+        <v>52</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="2">
+        <v>65</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O35" s="2">
+        <v>52</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1">
+        <v>53</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="2">
-        <v>69.18</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M34" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O34" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="1">
-        <v>51</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="2">
-        <v>61.58</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M35" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O35" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="1">
-        <v>52</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C36" s="2">
         <v>65</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M36" s="2">
         <v>1713</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O36" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>53</v>
+      </c>
+      <c r="P36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C37" s="2">
         <v>65</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M37" s="2">
         <v>1713</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O37" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>54</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C38" s="2">
         <v>65</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M38" s="2">
         <v>1713</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O38" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>55</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2">
         <v>65</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M39" s="2">
         <v>1713</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O39" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>56</v>
+      </c>
+      <c r="P39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C40" s="2">
         <v>65</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M40" s="2">
         <v>1713</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O40" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>57</v>
+      </c>
+      <c r="P40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C41" s="2">
         <v>65</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H41" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O41" s="2">
+        <v>58</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1">
+        <v>59</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="2">
+        <v>65.94</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O42" s="2">
+        <v>59</v>
+      </c>
+      <c r="P42" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>65.94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1">
+        <v>60</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="2">
+        <v>133.43</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M41" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O41" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="1">
+      <c r="I43" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O43" s="2">
+        <v>60</v>
+      </c>
+      <c r="P43" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>133.43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1">
+        <v>61</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="2">
+      <c r="C44" s="2">
+        <v>65.36</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O44" s="2">
+        <v>61</v>
+      </c>
+      <c r="P44" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>65.36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1">
+        <v>62</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="2">
+        <v>71.13</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O45" s="2">
+        <v>62</v>
+      </c>
+      <c r="P45" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>71.13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="2">
+        <v>73.4</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O46" s="2">
+        <v>63</v>
+      </c>
+      <c r="P46" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>73.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1">
+        <v>64</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="2">
+        <v>75.64</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O47" s="2">
+        <v>64</v>
+      </c>
+      <c r="P47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>75.64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1">
         <v>65</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M42" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O42" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="1">
-        <v>59</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="2">
-        <v>65.94</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M43" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O43" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="1">
-        <v>60</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="2">
-        <v>133.43</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M44" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O44" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="1">
-        <v>61</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="2">
-        <v>65.36</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M45" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O45" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="1">
+      <c r="B48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="2">
-        <v>71.13</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M46" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O46" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="1">
+      <c r="C48" s="2">
+        <v>76.97</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M48" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O48" s="2">
+        <v>65</v>
+      </c>
+      <c r="P48" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>76.97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1">
+        <v>66</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="2">
-        <v>73.4</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M47" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O47" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="1">
+      <c r="C49" s="2">
+        <v>75.44</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M49" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O49" s="2">
+        <v>66</v>
+      </c>
+      <c r="P49" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>75.44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1">
+        <v>67</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="2">
-        <v>75.64</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M48" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O48" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="1">
+      <c r="C50" s="2">
+        <v>73.73</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O50" s="2">
+        <v>67</v>
+      </c>
+      <c r="P50" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>73.73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1">
+        <v>68</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="2">
-        <v>76.97</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M49" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O49" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="1">
-        <v>66</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="2">
-        <v>75.44</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M50" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O50" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="1">
-        <v>67</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C51" s="2">
-        <v>73.73</v>
+        <v>72.02</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>98</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H51" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M51" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O51" s="2">
+        <v>68</v>
+      </c>
+      <c r="P51" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>72.02</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1">
+        <v>71</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="2">
+        <v>73.97</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M51" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O51" s="2">
+      <c r="I52" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M52" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O52" s="2">
+        <v>71</v>
+      </c>
+      <c r="P52" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>73.97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1">
+        <v>72</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="1">
+      <c r="C53" s="2">
+        <v>368.72</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M53" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O53" s="2">
+        <v>72</v>
+      </c>
+      <c r="P53" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>368.72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1">
+        <v>73</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="2">
-        <v>72.02</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="C54" s="2">
+        <v>11.45</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H54" s="2">
+        <v>217550</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O54" s="2">
+        <v>73</v>
+      </c>
+      <c r="P54" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1">
+        <v>74</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="2">
+        <v>3.42</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H55" s="2">
+        <v>64980</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M55" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O55" s="2">
+        <v>74</v>
+      </c>
+      <c r="P55" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1">
+        <v>75</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="2">
+        <v>13.42</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H56" s="2">
+        <v>254980</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M56" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O56" s="2">
+        <v>75</v>
+      </c>
+      <c r="P56" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>13.42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1">
         <v>76</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="B57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3.87</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M52" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O52" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="1">
-        <v>71</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="2">
-        <v>73.97</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="G57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H57" s="2">
+        <v>73530</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M57" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O57" s="2">
         <v>76</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M53" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O53" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="1">
+      <c r="P57" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1">
+        <v>77</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="2">
-        <v>368.72</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M54" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O54" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="1">
-        <v>73</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="2">
-        <v>11.45</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H55" s="2">
-        <v>217550</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M55" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O55" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="1">
-        <v>74</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="2">
-        <v>3.42</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H56" s="2">
-        <v>64980</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M56" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O56" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="1">
+      <c r="C58" s="2">
+        <v>49</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="2">
-        <v>13.42</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H57" s="2">
-        <v>254980</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M57" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O57" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="1">
-        <v>76</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="2">
-        <v>3.87</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>100</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H58" s="2">
-        <v>73530</v>
+        <v>715400</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M58" s="2">
         <v>1713</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O58" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>77</v>
+      </c>
+      <c r="P58" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2">
-        <v>49</v>
+        <v>444</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H59" s="2">
-        <v>715400</v>
+      <c r="H59" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M59" s="2">
         <v>1713</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O59" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>78</v>
+      </c>
+      <c r="P59" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2">
-        <v>444</v>
+        <v>1441</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="H60" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I60" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="J60" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M60" s="2">
         <v>1713</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O60" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="1">
         <v>79</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="2">
+      <c r="P60" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="2">
         <v>1441</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M61" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O61" s="2">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4295,7 +4509,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4303,570 +4517,544 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="1">
+        <v>215.58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2">
-        <v>215.58</v>
+        <v>229.74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C3" s="2">
-        <v>229.74</v>
+        <v>146.2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C4" s="2">
-        <v>146.2</v>
+        <v>41.62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C5" s="2">
-        <v>41.62</v>
+        <v>145.87</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2">
-        <v>145.87</v>
+        <v>60.89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
+        <v>90</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="2">
+        <v>76.2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="2">
-        <v>60.89</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C8" s="2">
-        <v>76.2</v>
+        <v>60.89</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C9" s="2">
-        <v>60.89</v>
+        <v>76.2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C10" s="2">
-        <v>76.2</v>
+        <v>60.89</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C11" s="2">
-        <v>60.89</v>
+        <v>76.2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C12" s="2">
-        <v>76.2</v>
+        <v>474.2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2">
-        <v>474.2</v>
+        <v>307.8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2">
-        <v>307.8</v>
+        <v>478.1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2">
-        <v>478.1</v>
+        <v>399.9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
+      </c>
+      <c r="H15" s="2">
+        <v>187900</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C16" s="2">
-        <v>399.9</v>
+        <v>256.14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H16" s="2">
-        <v>187900</v>
+        <v>135398</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2">
-        <v>256.14</v>
+        <v>181.3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="H17" s="2">
-        <v>135398</v>
+        <v>90400</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C18" s="2">
-        <v>181.3</v>
+        <v>154</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H18" s="2">
-        <v>90400</v>
+        <v>180400</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2">
-        <v>154</v>
+        <v>105.6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H19" s="2">
-        <v>180400</v>
+        <v>126100</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
+        <v>104</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="2">
+        <v>110.8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="2">
-        <v>105.6</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="H20" s="2">
-        <v>126100</v>
+        <v>126700</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C21" s="2">
-        <v>110.8</v>
+        <v>89.7</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H21" s="2">
-        <v>126700</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1">
-        <v>105</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="2">
-        <v>89.7</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="2">
         <v>102700</v>
       </c>
     </row>
@@ -4877,41 +5065,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>122</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4921,7 +5092,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4929,574 +5100,551 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>206</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>232</v>
+      <c r="G2" s="2">
+        <v>447534</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>447534</v>
+      <c r="G3" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>236</v>
+      <c r="G7" s="2">
+        <v>208922</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>208922</v>
+        <v>651253</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>651253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>257</v>
+      <c r="G10" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>239</v>
+      <c r="G13" s="2">
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="F14" s="2">
+        <v>16.8</v>
+      </c>
       <c r="G14" s="2">
-        <v>94</v>
+        <v>497.28</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="2">
-        <v>16.8</v>
-      </c>
-      <c r="G15" s="2">
-        <v>497.28</v>
+        <v>577.49</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="2">
-        <v>577.49</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>240</v>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>774920</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>774920</v>
+      <c r="G17" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>242</v>
+      <c r="G19" s="2">
+        <v>858285</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>858285</v>
+        <v>655276</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>655276</v>
+        <v>16485</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>16485</v>
+        <v>208830</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>208830</v>
+        <v>14320</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>14320</v>
+        <v>16443</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="2">
-        <v>16443</v>
+      <c r="G25" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1">
-        <v>154</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -5506,7 +5654,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5520,16 +5668,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -5555,529 +5703,485 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2">
-        <v>78364</v>
+        <v>2244</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="G2" s="2">
-        <v>783640</v>
+        <v>22440</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L2" s="2">
         <v>1713</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N2" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2">
-        <v>2244</v>
+        <v>811</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="G3" s="2">
-        <v>22440</v>
+        <v>8110</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L3" s="2">
         <v>1713</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N3" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2">
-        <v>811</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="G4" s="2">
-        <v>8110</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L4" s="2">
         <v>1713</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N4" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>1042</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="G5" s="2">
-        <v>10</v>
+        <v>10420</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L5" s="2">
         <v>1713</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N5" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2">
-        <v>1042</v>
+        <v>5140</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="G6" s="2">
-        <v>10420</v>
+        <v>51400</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L6" s="2">
         <v>1713</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N6" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2">
-        <v>5140</v>
+        <v>48623</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="G7" s="2">
-        <v>51400</v>
+        <v>486230</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L7" s="2">
         <v>1713</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N7" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2">
-        <v>48623</v>
+        <v>245268</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="2">
-        <v>486230</v>
+        <v>197</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L8" s="2">
         <v>1713</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N8" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2">
-        <v>245268</v>
+        <v>3459</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>262</v>
+        <v>197</v>
+      </c>
+      <c r="G9" s="2">
+        <v>34590</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L9" s="2">
         <v>1713</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N9" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="2">
-        <v>3459</v>
+        <v>27432</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="G10" s="2">
-        <v>34590</v>
+        <v>274320</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L10" s="2">
         <v>1713</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N10" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2">
-        <v>27432</v>
+        <v>200000</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G11" s="2">
-        <v>274320</v>
+        <v>197</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L11" s="2">
         <v>1713</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="2">
-        <v>200000</v>
+      <c r="D12" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L12" s="2">
         <v>1713</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N12" s="2">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1">
-        <v>172</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E13" s="2">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1713</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="N13" s="2">
         <v>172</v>
       </c>
     </row>
@@ -6088,7 +6192,358 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>198</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>199</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>200</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>201</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>202</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>203</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>204</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>205</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>206</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>207</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>208</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>209</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>210</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>211</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>212</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>213</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>214</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>215</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>216</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>217</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>218</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6096,45 +6551,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>207</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
+      <c r="D2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G2" s="2">
-        <v>10</v>
+        <v>282</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>225</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -6142,341 +6620,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>197</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>198</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>199</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>200</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>201</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>202</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>203</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>204</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>205</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>206</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>207</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>208</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>209</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>210</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>211</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>212</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>213</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>214</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>215</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>216</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>217</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>218</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6484,351 +6630,226 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>290</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="2">
+        <v>30460</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>285</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="2">
+        <v>800000</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>291</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="2">
+        <v>300000</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>235</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>236</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E3" s="2">
-        <v>30460</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>237</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E4" s="2">
-        <v>800000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E5" s="2">
-        <v>300000</v>
+        <v>298</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>261</v>
+        <v>299</v>
+      </c>
+      <c r="E6" s="2">
+        <v>120000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E7" s="2">
-        <v>120000</v>
+        <v>134580</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="E8" s="2">
-        <v>134580</v>
+        <v>200000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>343</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="E9" s="2">
-        <v>200000</v>
+        <v>250320</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E10" s="2">
-        <v>250320</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>245</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="G10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="316">
   <si>
     <t>name</t>
   </si>
@@ -72,6 +72,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>彰化縣溪州鄉進樂段00460000地號</t>
+  </si>
+  <si>
     <t>彰化縣溪州鄉進樂段00460001地號</t>
   </si>
   <si>
@@ -342,6 +345,9 @@
     <t>持分分割</t>
   </si>
   <si>
+    <t>1984095(超過五年）</t>
+  </si>
+  <si>
     <t>2108088(超過五年）</t>
   </si>
   <si>
@@ -480,96 +486,96 @@
     <t>彰化縣溪州鄉進樂段00113000建號</t>
   </si>
   <si>
+    <t>彰化縣溪州鄉進樂段00114000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區榮星段六小段18478000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00023000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00024000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00036000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00037000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00038000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00039000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00040000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00041000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段00075000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉中央路3段338號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段00022000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段00250000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段00249000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮中山路1段67號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段00063000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉中山路3段270巷19號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進興路2巷5號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進興路2巷7號</t>
+  </si>
+  <si>
+    <t>100000分之25000</t>
+  </si>
+  <si>
     <t>92年09月19日</t>
   </si>
   <si>
+    <t>73年12月31日</t>
+  </si>
+  <si>
+    <t>87年02月200</t>
+  </si>
+  <si>
+    <t>98年07月30日</t>
+  </si>
+  <si>
+    <t>98年06月26日</t>
+  </si>
+  <si>
+    <t>99年02月25日</t>
+  </si>
+  <si>
+    <t>新建</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
     <t>485400(超過五年）</t>
   </si>
   <si>
-    <t>彰化縣溪州鄉進樂段00114000建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區榮星段六小段18478000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00023000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00024000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00036000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00037000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00038000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00039000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00040000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00041000建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段00075000建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉中央路3段338號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段00022000建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段00250000建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段00249000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮中山路1段67號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段00063000建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉中山路3段270巷19號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進興路2巷5號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進興路2巷7號</t>
-  </si>
-  <si>
-    <t>100000分之25000</t>
-  </si>
-  <si>
-    <t>73年12月31日</t>
-  </si>
-  <si>
-    <t>87年02月200</t>
-  </si>
-  <si>
-    <t>98年07月30日</t>
-  </si>
-  <si>
-    <t>98年06月26日</t>
-  </si>
-  <si>
-    <t>99年02月25日</t>
-  </si>
-  <si>
-    <t>新建</t>
-  </si>
-  <si>
-    <t>第一次登記</t>
-  </si>
-  <si>
     <t>521200(超過五年）</t>
   </si>
   <si>
@@ -721,6 +727,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>台灣水泥股份有限公司</t>
   </si>
   <si>
     <t>台塑石化股份有限公司</t>
@@ -1319,7 +1328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1377,228 +1386,228 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>101.84</v>
+        <v>95.85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" s="2">
         <v>1713</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>101.84</v>
+        <v>95.85</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>491</v>
+        <v>101.84</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" s="2">
         <v>1713</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.0984251968503937</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>48.3267716535433</v>
+        <v>101.84</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>28744</v>
+        <v>491</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M4" s="2">
         <v>1713</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.0984251968503937</v>
       </c>
       <c r="Q4" s="2">
-        <v>2829.13385826772</v>
+        <v>48.3267716535433</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>1448</v>
+        <v>28744</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M5" s="2">
         <v>1713</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0.0984251968503937</v>
       </c>
       <c r="Q5" s="2">
-        <v>1448</v>
+        <v>2829.13385826772</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1966</v>
+        <v>1448</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>83</v>
@@ -1607,54 +1616,54 @@
         <v>87</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M6" s="2">
         <v>1713</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
-        <v>0.0166</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>32.6356</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>2227.81</v>
+        <v>1966</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>88</v>
@@ -1663,422 +1672,422 @@
         <v>102</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M7" s="2">
         <v>1713</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0.0166</v>
       </c>
       <c r="Q7" s="2">
-        <v>2227.81</v>
+        <v>32.6356</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>135.07</v>
+        <v>2227.81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M8" s="2">
         <v>1713</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>135.07</v>
+        <v>2227.81</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>88.53</v>
+        <v>135.07</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M9" s="2">
         <v>1713</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>88.53</v>
+        <v>135.07</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>1073.71</v>
+        <v>88.53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M10" s="2">
         <v>1713</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>1073.71</v>
+        <v>88.53</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>389.98</v>
+        <v>1073.71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M11" s="2">
         <v>1713</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
-        <v>0.265625</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>103.5884375</v>
+        <v>1073.71</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>3144</v>
+        <v>389.98</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="2">
         <v>1713</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
-        <v>0.5</v>
+        <v>0.265625</v>
       </c>
       <c r="Q12" s="2">
-        <v>1572</v>
+        <v>103.5884375</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>267.81</v>
+        <v>3144</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" s="2">
         <v>1713</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q13" s="2">
-        <v>267.81</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>103</v>
+        <v>267.81</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="2">
         <v>1713</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O14" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
-        <v>0.0805734058329214</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>8.2990608007909</v>
+        <v>267.81</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>127.96</v>
+        <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>93</v>
@@ -2087,210 +2096,210 @@
         <v>104</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M15" s="2">
         <v>1713</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O15" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P15" s="2">
-        <v>0.333333333333333</v>
+        <v>0.0805734058329214</v>
       </c>
       <c r="Q15" s="2">
-        <v>42.6533333333333</v>
+        <v>8.2990608007909</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>108.4</v>
+        <v>127.96</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M16" s="2">
         <v>1713</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O16" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P16" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q16" s="2">
-        <v>36.1333333333333</v>
+        <v>42.6533333333333</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>111.42</v>
+        <v>108.4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M17" s="2">
         <v>1713</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O17" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q17" s="2">
-        <v>37.14</v>
+        <v>36.1333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>208.85</v>
+        <v>111.42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M18" s="2">
         <v>1713</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O18" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q18" s="2">
-        <v>69.6166666666667</v>
+        <v>37.14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>1005</v>
+        <v>208.85</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>94</v>
@@ -2299,887 +2308,887 @@
         <v>105</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M19" s="2">
         <v>1713</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O19" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P19" s="2">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q19" s="2">
-        <v>1005</v>
+        <v>69.6166666666667</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>10.07</v>
+        <v>1005</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="2">
-        <v>167243</v>
+        <v>106</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M20" s="2">
         <v>1713</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O20" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P20" s="2">
         <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <v>10.07</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>40.69</v>
+        <v>10.07</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H21" s="2">
-        <v>675780</v>
+        <v>167243</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M21" s="2">
         <v>1713</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O21" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P21" s="2">
         <v>1</v>
       </c>
       <c r="Q21" s="2">
-        <v>40.69</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>18.69</v>
+        <v>40.69</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H22" s="2">
-        <v>310404</v>
+        <v>675780</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M22" s="2">
         <v>1713</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O22" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P22" s="2">
         <v>1</v>
       </c>
       <c r="Q22" s="2">
-        <v>18.69</v>
+        <v>40.69</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>64.41</v>
+        <v>18.69</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
+      </c>
+      <c r="H23" s="2">
+        <v>310404</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M23" s="2">
         <v>1713</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O23" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P23" s="2">
         <v>1</v>
       </c>
       <c r="Q23" s="2">
-        <v>64.41</v>
+        <v>18.69</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>5.78</v>
+        <v>64.41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="2">
-        <v>95994</v>
+        <v>104</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M24" s="2">
         <v>1713</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O24" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P24" s="2">
         <v>1</v>
       </c>
       <c r="Q24" s="2">
-        <v>5.78</v>
+        <v>64.41</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>39.58</v>
+        <v>5.78</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H25" s="2">
-        <v>657345</v>
+        <v>95994</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M25" s="2">
         <v>1713</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O25" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P25" s="2">
         <v>1</v>
       </c>
       <c r="Q25" s="2">
-        <v>39.58</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="2">
-        <v>36.67</v>
+        <v>39.58</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H26" s="2">
-        <v>609015</v>
+        <v>657345</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M26" s="2">
         <v>1713</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O26" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P26" s="2">
         <v>1</v>
       </c>
       <c r="Q26" s="2">
-        <v>36.67</v>
+        <v>39.58</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="2">
-        <v>29.68</v>
+        <v>36.67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H27" s="2">
-        <v>492925</v>
+        <v>609015</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M27" s="2">
         <v>1713</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O27" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P27" s="2">
         <v>1</v>
       </c>
       <c r="Q27" s="2">
-        <v>29.68</v>
+        <v>36.67</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="2">
-        <v>122.52</v>
+        <v>29.68</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>97</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
+      </c>
+      <c r="H28" s="2">
+        <v>492925</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M28" s="2">
         <v>1713</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O28" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P28" s="2">
         <v>1</v>
       </c>
       <c r="Q28" s="2">
-        <v>122.52</v>
+        <v>29.68</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="2">
-        <v>112.12</v>
+        <v>122.52</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M29" s="2">
         <v>1713</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O29" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P29" s="2">
         <v>1</v>
       </c>
       <c r="Q29" s="2">
-        <v>112.12</v>
+        <v>122.52</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="2">
-        <v>93.2</v>
+        <v>112.12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M30" s="2">
         <v>1713</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O30" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P30" s="2">
         <v>1</v>
       </c>
       <c r="Q30" s="2">
-        <v>93.2</v>
+        <v>112.12</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="2">
-        <v>95.51</v>
+        <v>93.2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M31" s="2">
         <v>1713</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O31" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="2">
         <v>1</v>
       </c>
       <c r="Q31" s="2">
-        <v>95.51</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="2">
-        <v>121.14</v>
+        <v>95.51</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>98</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M32" s="2">
         <v>1713</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O32" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P32" s="2">
         <v>1</v>
       </c>
       <c r="Q32" s="2">
-        <v>121.14</v>
+        <v>95.51</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="2">
-        <v>69.18</v>
+        <v>121.14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>99</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M33" s="2">
         <v>1713</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O33" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P33" s="2">
         <v>1</v>
       </c>
       <c r="Q33" s="2">
-        <v>69.18</v>
+        <v>121.14</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="2">
-        <v>61.58</v>
+        <v>69.18</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M34" s="2">
         <v>1713</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O34" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P34" s="2">
         <v>1</v>
       </c>
       <c r="Q34" s="2">
-        <v>61.58</v>
+        <v>69.18</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="2">
-        <v>65</v>
+        <v>61.58</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M35" s="2">
         <v>1713</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O35" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P35" s="2">
         <v>1</v>
       </c>
       <c r="Q35" s="2">
-        <v>65</v>
+        <v>61.58</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>50</v>
@@ -3188,40 +3197,40 @@
         <v>65</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M36" s="2">
         <v>1713</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O36" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P36" s="2">
         <v>1</v>
@@ -3232,7 +3241,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>51</v>
@@ -3241,40 +3250,40 @@
         <v>65</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M37" s="2">
         <v>1713</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O37" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P37" s="2">
         <v>1</v>
@@ -3285,7 +3294,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>52</v>
@@ -3294,40 +3303,40 @@
         <v>65</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M38" s="2">
         <v>1713</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O38" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P38" s="2">
         <v>1</v>
@@ -3338,7 +3347,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>53</v>
@@ -3347,40 +3356,40 @@
         <v>65</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M39" s="2">
         <v>1713</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O39" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P39" s="2">
         <v>1</v>
@@ -3391,7 +3400,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>54</v>
@@ -3400,40 +3409,40 @@
         <v>65</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M40" s="2">
         <v>1713</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O40" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P40" s="2">
         <v>1</v>
@@ -3444,7 +3453,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>55</v>
@@ -3453,40 +3462,40 @@
         <v>65</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M41" s="2">
         <v>1713</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O41" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P41" s="2">
         <v>1</v>
@@ -3497,1008 +3506,1061 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C42" s="2">
-        <v>65.94</v>
+        <v>65</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M42" s="2">
         <v>1713</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O42" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P42" s="2">
         <v>1</v>
       </c>
       <c r="Q42" s="2">
-        <v>65.94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C43" s="2">
-        <v>133.43</v>
+        <v>65.94</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M43" s="2">
         <v>1713</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O43" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P43" s="2">
         <v>1</v>
       </c>
       <c r="Q43" s="2">
-        <v>133.43</v>
+        <v>65.94</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C44" s="2">
-        <v>65.36</v>
+        <v>133.43</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M44" s="2">
         <v>1713</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O44" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P44" s="2">
         <v>1</v>
       </c>
       <c r="Q44" s="2">
-        <v>65.36</v>
+        <v>133.43</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C45" s="2">
-        <v>71.13</v>
+        <v>65.36</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M45" s="2">
         <v>1713</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O45" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P45" s="2">
         <v>1</v>
       </c>
       <c r="Q45" s="2">
-        <v>71.13</v>
+        <v>65.36</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C46" s="2">
-        <v>73.4</v>
+        <v>71.13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M46" s="2">
         <v>1713</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O46" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P46" s="2">
         <v>1</v>
       </c>
       <c r="Q46" s="2">
-        <v>73.4</v>
+        <v>71.13</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C47" s="2">
-        <v>75.64</v>
+        <v>73.4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M47" s="2">
         <v>1713</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O47" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P47" s="2">
         <v>1</v>
       </c>
       <c r="Q47" s="2">
-        <v>75.64</v>
+        <v>73.4</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="2">
-        <v>76.97</v>
+        <v>75.64</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M48" s="2">
         <v>1713</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O48" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P48" s="2">
         <v>1</v>
       </c>
       <c r="Q48" s="2">
-        <v>76.97</v>
+        <v>75.64</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C49" s="2">
-        <v>75.44</v>
+        <v>76.97</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M49" s="2">
         <v>1713</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O49" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P49" s="2">
         <v>1</v>
       </c>
       <c r="Q49" s="2">
-        <v>75.44</v>
+        <v>76.97</v>
       </c>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C50" s="2">
-        <v>73.73</v>
+        <v>75.44</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M50" s="2">
         <v>1713</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O50" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P50" s="2">
         <v>1</v>
       </c>
       <c r="Q50" s="2">
-        <v>73.73</v>
+        <v>75.44</v>
       </c>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C51" s="2">
-        <v>72.02</v>
+        <v>73.73</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>98</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M51" s="2">
         <v>1713</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O51" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P51" s="2">
         <v>1</v>
       </c>
       <c r="Q51" s="2">
-        <v>72.02</v>
+        <v>73.73</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C52" s="2">
-        <v>73.97</v>
+        <v>72.02</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M52" s="2">
         <v>1713</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O52" s="2">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P52" s="2">
         <v>1</v>
       </c>
       <c r="Q52" s="2">
-        <v>73.97</v>
+        <v>72.02</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C53" s="2">
-        <v>368.72</v>
+        <v>73.97</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M53" s="2">
         <v>1713</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O53" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P53" s="2">
         <v>1</v>
       </c>
       <c r="Q53" s="2">
-        <v>368.72</v>
+        <v>73.97</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="2">
-        <v>11.45</v>
+        <v>368.72</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H54" s="2">
-        <v>217550</v>
+        <v>102</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M54" s="2">
         <v>1713</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O54" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P54" s="2">
         <v>1</v>
       </c>
       <c r="Q54" s="2">
-        <v>11.45</v>
+        <v>368.72</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C55" s="2">
-        <v>3.42</v>
+        <v>11.45</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H55" s="2">
-        <v>64980</v>
+        <v>217550</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M55" s="2">
         <v>1713</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O55" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P55" s="2">
         <v>1</v>
       </c>
       <c r="Q55" s="2">
-        <v>3.42</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C56" s="2">
-        <v>13.42</v>
+        <v>3.42</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H56" s="2">
-        <v>254980</v>
+        <v>64980</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M56" s="2">
         <v>1713</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O56" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P56" s="2">
         <v>1</v>
       </c>
       <c r="Q56" s="2">
-        <v>13.42</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C57" s="2">
-        <v>3.87</v>
+        <v>13.42</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H57" s="2">
+        <v>254980</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M57" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O57" s="2">
         <v>75</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H57" s="2">
-        <v>73530</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M57" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="O57" s="2">
-        <v>76</v>
       </c>
       <c r="P57" s="2">
         <v>1</v>
       </c>
       <c r="Q57" s="2">
-        <v>3.87</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C58" s="2">
-        <v>49</v>
+        <v>3.87</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>100</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H58" s="2">
-        <v>715400</v>
+        <v>73530</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M58" s="2">
         <v>1713</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O58" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P58" s="2">
         <v>1</v>
       </c>
       <c r="Q58" s="2">
-        <v>49</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C59" s="2">
-        <v>444</v>
+        <v>49</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>145</v>
+        <v>102</v>
+      </c>
+      <c r="H59" s="2">
+        <v>715400</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M59" s="2">
         <v>1713</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O59" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P59" s="2">
         <v>1</v>
       </c>
       <c r="Q59" s="2">
-        <v>444</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C60" s="2">
-        <v>1441</v>
+        <v>444</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M60" s="2">
         <v>1713</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O60" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P60" s="2">
         <v>1</v>
       </c>
       <c r="Q60" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1">
+        <v>79</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1441</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M61" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O61" s="2">
+        <v>79</v>
+      </c>
+      <c r="P61" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="2">
         <v>1441</v>
       </c>
     </row>
@@ -4509,73 +4571,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="2">
         <v>215.58</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O2" s="2">
+        <v>84</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>215.58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>85</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>229.74</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>86</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="2">
-        <v>146.2</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>83</v>
@@ -4584,478 +4700,1044 @@
         <v>175</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O3" s="2">
+        <v>85</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>229.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
+        <v>86</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="2">
+        <v>146.2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O4" s="2">
+        <v>86</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>146.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
         <v>87</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>41.62</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O5" s="2">
+        <v>87</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>10.405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>88</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="2">
+        <v>145.87</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O6" s="2">
+        <v>88</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>145.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
         <v>89</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>88</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="2">
-        <v>145.87</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="2">
+        <v>60.89</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O7" s="2">
         <v>89</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>89</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
         <v>60.89</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
         <v>90</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>76.2</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
+      <c r="D8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O8" s="2">
+        <v>90</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
         <v>91</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <v>60.89</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
+      <c r="D9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O9" s="2">
+        <v>91</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>60.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
         <v>93</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>76.2</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
+      <c r="D10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O10" s="2">
+        <v>93</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
         <v>94</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>60.89</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
+      <c r="D11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O11" s="2">
+        <v>94</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>60.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
         <v>95</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <v>76.2</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
+      <c r="D12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O12" s="2">
+        <v>95</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
         <v>96</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <v>474.2</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
+      <c r="D13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O13" s="2">
+        <v>96</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>158.066666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
         <v>97</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <v>307.8</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
+      <c r="D14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O14" s="2">
+        <v>97</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>102.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
         <v>98</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <v>478.1</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
+      <c r="D15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O15" s="2">
+        <v>98</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>159.366666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
         <v>99</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>399.9</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H15" s="2">
-        <v>187900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>100</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" s="2">
-        <v>256.14</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>178</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H16" s="2">
-        <v>135398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>187900</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" s="2">
+        <v>99</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>133.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2">
-        <v>181.3</v>
+        <v>256.14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>179</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="H17" s="2">
+        <v>135398</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" s="2">
+        <v>100</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>85.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1">
+        <v>101</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="2">
+        <v>181.3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="2">
         <v>90400</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
+      <c r="I18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" s="2">
+        <v>101</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>181.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1">
         <v>102</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2">
         <v>154</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="2">
-        <v>180400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
-        <v>103</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19" s="2">
-        <v>105.6</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="2">
+        <v>180400</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" s="2">
+        <v>102</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1">
         <v>103</v>
       </c>
-      <c r="H19" s="2">
+      <c r="B20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="2">
+        <v>105.6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="2">
         <v>126100</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
+      <c r="I20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O20" s="2">
+        <v>103</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1">
         <v>104</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="2">
         <v>110.8</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="2">
-        <v>126700</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
-        <v>105</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="2">
-        <v>89.7</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H21" s="2">
+        <v>126700</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O21" s="2">
+        <v>104</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1">
+        <v>105</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="2">
+        <v>89.7</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="2">
         <v>102700</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O22" s="2">
+        <v>105</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>89.7</v>
       </c>
     </row>
   </sheetData>
@@ -5065,24 +5747,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>194</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -5092,7 +5791,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5100,551 +5799,572 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>447534</v>
+      <c r="G2" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>218</v>
+      <c r="G3" s="2">
+        <v>447534</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>208922</v>
+      <c r="G7" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>651253</v>
+        <v>208922</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>213</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>257</v>
+        <v>651253</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>222</v>
+      <c r="G10" s="2">
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>213</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>94</v>
+      <c r="G13" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="2">
-        <v>16.8</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>497.28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F15" s="2">
-        <v>577.49</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>225</v>
+        <v>16.8</v>
+      </c>
+      <c r="G15" s="2">
+        <v>497.28</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>774920</v>
+      <c r="F16" s="2">
+        <v>577.49</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>226</v>
+      <c r="G17" s="2">
+        <v>774920</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>213</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <v>858285</v>
+      <c r="G19" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>655276</v>
+        <v>858285</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>213</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>16485</v>
+        <v>655276</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>208830</v>
+        <v>16485</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>14320</v>
+        <v>208830</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>16443</v>
+        <v>14320</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>228</v>
+      <c r="G25" s="2">
+        <v>16443</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
+        <v>153</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>154</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>229</v>
+      <c r="D27" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5654,7 +6374,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5668,13 +6388,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -5703,485 +6423,529 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2">
-        <v>2244</v>
+        <v>78364</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G2" s="2">
-        <v>22440</v>
+        <v>783640</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" s="2">
         <v>1713</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N2" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2">
-        <v>811</v>
+        <v>2244</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G3" s="2">
-        <v>8110</v>
+        <v>22440</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" s="2">
         <v>1713</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N3" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>811</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G4" s="2">
-        <v>10</v>
+        <v>8110</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L4" s="2">
         <v>1713</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N4" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2">
-        <v>1042</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G5" s="2">
-        <v>10420</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L5" s="2">
         <v>1713</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N5" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2">
-        <v>5140</v>
+        <v>1042</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G6" s="2">
-        <v>51400</v>
+        <v>10420</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" s="2">
         <v>1713</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N6" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2">
-        <v>48623</v>
+        <v>5140</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G7" s="2">
-        <v>486230</v>
+        <v>51400</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L7" s="2">
         <v>1713</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N7" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2">
-        <v>245268</v>
+        <v>48623</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>245</v>
+        <v>199</v>
+      </c>
+      <c r="G8" s="2">
+        <v>486230</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L8" s="2">
         <v>1713</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N8" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2">
-        <v>3459</v>
+        <v>245268</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G9" s="2">
-        <v>34590</v>
+        <v>199</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L9" s="2">
         <v>1713</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N9" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="2">
-        <v>27432</v>
+        <v>3459</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="2">
-        <v>274320</v>
+        <v>34590</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L10" s="2">
         <v>1713</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N10" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2">
-        <v>200000</v>
+        <v>27432</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>246</v>
+        <v>199</v>
+      </c>
+      <c r="G11" s="2">
+        <v>274320</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L11" s="2">
         <v>1713</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N11" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>244</v>
+      <c r="D12" s="2">
+        <v>200000</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N12" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>172</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1713</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N13" s="2">
         <v>172</v>
       </c>
     </row>
@@ -6192,18 +6956,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1">
         <v>1</v>
@@ -6212,10 +6976,33 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G1" s="1">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>187</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -6225,7 +7012,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6233,94 +7020,94 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>83</v>
@@ -6328,111 +7115,111 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>83</v>
@@ -6440,100 +7227,114 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
+        <v>217</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
         <v>218</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>82</v>
+      <c r="B23" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -6543,7 +7344,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6551,68 +7352,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>224</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>225</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>284</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -6622,7 +7446,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6630,226 +7454,249 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E2" s="2">
-        <v>30460</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="E3" s="2">
-        <v>800000</v>
+        <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E4" s="2">
-        <v>300000</v>
+        <v>800000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>244</v>
+        <v>300</v>
+      </c>
+      <c r="E5" s="2">
+        <v>300000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E6" s="2">
-        <v>120000</v>
+        <v>301</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E7" s="2">
-        <v>134580</v>
+        <v>120000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E8" s="2">
-        <v>200000</v>
+        <v>134580</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E9" s="2">
-        <v>250320</v>
+        <v>200000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
+        <v>243</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E10" s="2">
+        <v>250320</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>245</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G10" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
@@ -9,20 +9,19 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="航空器" sheetId="3" r:id="rId3"/>
-    <sheet name="存款" sheetId="4" r:id="rId4"/>
-    <sheet name="股票" sheetId="5" r:id="rId5"/>
-    <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
-    <sheet name="保險" sheetId="7" r:id="rId7"/>
-    <sheet name="債權" sheetId="8" r:id="rId8"/>
-    <sheet name="事業投資" sheetId="9" r:id="rId9"/>
+    <sheet name="存款" sheetId="3" r:id="rId3"/>
+    <sheet name="股票" sheetId="4" r:id="rId4"/>
+    <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
+    <sheet name="保險" sheetId="6" r:id="rId6"/>
+    <sheet name="債權" sheetId="7" r:id="rId7"/>
+    <sheet name="事業投資" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="313">
   <si>
     <t>name</t>
   </si>
@@ -603,16 +602,7 @@
     <t>164465(超過五年）</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
+    <t>building</t>
   </si>
   <si>
     <t>安泰商業銀行員林分行</t>
@@ -4653,7 +4643,7 @@
         <v>183</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>150</v>
@@ -4706,7 +4696,7 @@
         <v>184</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>150</v>
@@ -4759,7 +4749,7 @@
         <v>185</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>150</v>
@@ -4812,7 +4802,7 @@
         <v>186</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>150</v>
@@ -4865,7 +4855,7 @@
         <v>187</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>150</v>
@@ -4918,7 +4908,7 @@
         <v>188</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>150</v>
@@ -4971,7 +4961,7 @@
         <v>189</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>150</v>
@@ -5024,7 +5014,7 @@
         <v>188</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>150</v>
@@ -5077,7 +5067,7 @@
         <v>189</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>150</v>
@@ -5130,7 +5120,7 @@
         <v>188</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>150</v>
@@ -5183,7 +5173,7 @@
         <v>189</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>150</v>
@@ -5236,7 +5226,7 @@
         <v>190</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>150</v>
@@ -5289,7 +5279,7 @@
         <v>191</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>150</v>
@@ -5342,7 +5332,7 @@
         <v>192</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>150</v>
@@ -5395,7 +5385,7 @@
         <v>187900</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>150</v>
@@ -5448,7 +5438,7 @@
         <v>135398</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>150</v>
@@ -5501,7 +5491,7 @@
         <v>90400</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>150</v>
@@ -5554,7 +5544,7 @@
         <v>180400</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>150</v>
@@ -5607,7 +5597,7 @@
         <v>126100</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>150</v>
@@ -5660,7 +5650,7 @@
         <v>126700</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>150</v>
@@ -5713,7 +5703,7 @@
         <v>102700</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>150</v>
@@ -5746,50 +5736,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>122</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -5799,20 +5745,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5820,20 +5766,20 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5841,13 +5787,13 @@
         <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>83</v>
@@ -5862,20 +5808,20 @@
         <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5883,20 +5829,20 @@
         <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5904,20 +5850,20 @@
         <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5925,20 +5871,20 @@
         <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5946,13 +5892,13 @@
         <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>83</v>
@@ -5967,13 +5913,13 @@
         <v>135</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>83</v>
@@ -5988,13 +5934,13 @@
         <v>136</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>83</v>
@@ -6009,20 +5955,20 @@
         <v>137</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6030,20 +5976,20 @@
         <v>138</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6051,20 +5997,20 @@
         <v>139</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6072,13 +6018,13 @@
         <v>140</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>83</v>
@@ -6093,13 +6039,13 @@
         <v>141</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>83</v>
@@ -6116,13 +6062,13 @@
         <v>142</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>83</v>
@@ -6131,7 +6077,7 @@
         <v>577.49</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6139,13 +6085,13 @@
         <v>143</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>84</v>
@@ -6160,20 +6106,20 @@
         <v>144</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -6181,20 +6127,20 @@
         <v>145</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6202,13 +6148,13 @@
         <v>146</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>84</v>
@@ -6223,13 +6169,13 @@
         <v>147</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>84</v>
@@ -6244,13 +6190,13 @@
         <v>148</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>84</v>
@@ -6265,13 +6211,13 @@
         <v>149</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>84</v>
@@ -6286,13 +6232,13 @@
         <v>151</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>84</v>
@@ -6307,13 +6253,13 @@
         <v>152</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>84</v>
@@ -6328,20 +6274,20 @@
         <v>153</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6349,22 +6295,22 @@
         <v>154</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -6372,7 +6318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N13"/>
   <sheetViews>
@@ -6388,13 +6334,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -6426,7 +6372,7 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>83</v>
@@ -6438,13 +6384,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G2" s="2">
         <v>783640</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>150</v>
@@ -6470,7 +6416,7 @@
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>83</v>
@@ -6482,13 +6428,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G3" s="2">
         <v>22440</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>150</v>
@@ -6514,7 +6460,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>83</v>
@@ -6526,13 +6472,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G4" s="2">
         <v>8110</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>150</v>
@@ -6558,7 +6504,7 @@
         <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>83</v>
@@ -6570,13 +6516,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>150</v>
@@ -6602,7 +6548,7 @@
         <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>83</v>
@@ -6614,13 +6560,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G6" s="2">
         <v>10420</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>150</v>
@@ -6646,7 +6592,7 @@
         <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>83</v>
@@ -6658,13 +6604,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G7" s="2">
         <v>51400</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>150</v>
@@ -6690,7 +6636,7 @@
         <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>83</v>
@@ -6702,13 +6648,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G8" s="2">
         <v>486230</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>150</v>
@@ -6734,7 +6680,7 @@
         <v>168</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>83</v>
@@ -6746,13 +6692,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>150</v>
@@ -6778,7 +6724,7 @@
         <v>169</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>83</v>
@@ -6790,13 +6736,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G10" s="2">
         <v>34590</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>150</v>
@@ -6822,7 +6768,7 @@
         <v>170</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>84</v>
@@ -6834,13 +6780,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G11" s="2">
         <v>274320</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>150</v>
@@ -6866,7 +6812,7 @@
         <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>83</v>
@@ -6878,13 +6824,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>150</v>
@@ -6910,25 +6856,25 @@
         <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>150</v>
@@ -6954,7 +6900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -6964,7 +6910,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>83</v>
@@ -6976,7 +6922,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G1" s="1">
         <v>10</v>
@@ -6987,7 +6933,7 @@
         <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>83</v>
@@ -7002,7 +6948,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -7010,7 +6956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -7020,10 +6966,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>83</v>
@@ -7034,10 +6980,10 @@
         <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>83</v>
@@ -7048,10 +6994,10 @@
         <v>198</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>83</v>
@@ -7062,10 +7008,10 @@
         <v>199</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>83</v>
@@ -7076,10 +7022,10 @@
         <v>200</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>83</v>
@@ -7090,10 +7036,10 @@
         <v>201</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>83</v>
@@ -7104,10 +7050,10 @@
         <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>83</v>
@@ -7118,10 +7064,10 @@
         <v>203</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>84</v>
@@ -7132,10 +7078,10 @@
         <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>84</v>
@@ -7146,10 +7092,10 @@
         <v>205</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>84</v>
@@ -7160,10 +7106,10 @@
         <v>206</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>83</v>
@@ -7174,10 +7120,10 @@
         <v>207</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>83</v>
@@ -7188,10 +7134,10 @@
         <v>208</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>83</v>
@@ -7202,10 +7148,10 @@
         <v>209</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>83</v>
@@ -7216,10 +7162,10 @@
         <v>210</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>83</v>
@@ -7230,10 +7176,10 @@
         <v>211</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>84</v>
@@ -7244,10 +7190,10 @@
         <v>212</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>84</v>
@@ -7258,10 +7204,10 @@
         <v>213</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>84</v>
@@ -7272,10 +7218,10 @@
         <v>214</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>84</v>
@@ -7286,10 +7232,10 @@
         <v>215</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>84</v>
@@ -7300,10 +7246,10 @@
         <v>216</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>83</v>
@@ -7314,10 +7260,10 @@
         <v>217</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>83</v>
@@ -7328,10 +7274,10 @@
         <v>218</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>83</v>
@@ -7342,7 +7288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -7352,22 +7298,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7375,22 +7321,22 @@
         <v>223</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7398,22 +7344,22 @@
         <v>224</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7421,22 +7367,22 @@
         <v>225</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -7444,7 +7390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -7457,19 +7403,19 @@
         <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7480,19 +7426,19 @@
         <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7503,19 +7449,19 @@
         <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7526,19 +7472,19 @@
         <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E4" s="2">
         <v>800000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7549,19 +7495,19 @@
         <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E5" s="2">
         <v>300000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7572,19 +7518,19 @@
         <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7595,19 +7541,19 @@
         <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E7" s="2">
         <v>120000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7618,19 +7564,19 @@
         <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E8" s="2">
         <v>134580</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7641,19 +7587,19 @@
         <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E9" s="2">
         <v>200000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7664,19 +7610,19 @@
         <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E10" s="2">
         <v>250320</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7687,14 +7633,14 @@
         <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G11" s="2"/>
     </row>

--- a/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="302">
   <si>
     <t>name</t>
   </si>
@@ -605,118 +605,85 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>安泰商業銀行員林分行</t>
   </si>
   <si>
+    <t>聯邦商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行西螺分行</t>
+  </si>
+  <si>
+    <t>溪州郵局（第37支局）</t>
+  </si>
+  <si>
+    <t>彰化商業銀行北斗分行</t>
+  </si>
+  <si>
+    <t>台中商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行松南分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行敦南分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>曰盛國際商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行員林分行</t>
+  </si>
+  <si>
+    <t>台中商業銀行北斗分行</t>
+  </si>
+  <si>
     <t>綜合存或</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>中華郵政存簿儲金</t>
+  </si>
+  <si>
+    <t>中華郵政劃撥儲金</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>1040273</t>
-  </si>
-  <si>
-    <t>聯邦商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行西螺分行</t>
-  </si>
-  <si>
-    <t>溪州郵局（第37支局）</t>
-  </si>
-  <si>
-    <t>彰化商業銀行北斗分行</t>
-  </si>
-  <si>
-    <t>台中商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行松南分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行敦南分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>曰盛國際商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行員林分行</t>
-  </si>
-  <si>
-    <t>台中商業銀行北斗分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>中華郵政存簿儲金</t>
-  </si>
-  <si>
-    <t>中華郵政劃撥儲金</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>1403.01</t>
-  </si>
-  <si>
-    <t>3052811</t>
-  </si>
-  <si>
-    <t>2348779</t>
-  </si>
-  <si>
-    <t>1034227</t>
-  </si>
-  <si>
-    <t>21856803</t>
-  </si>
-  <si>
-    <t>7585390</t>
-  </si>
-  <si>
-    <t>28392758</t>
-  </si>
-  <si>
-    <t>1364309</t>
-  </si>
-  <si>
-    <t>17093.70</t>
-  </si>
-  <si>
-    <t>62537235</t>
-  </si>
-  <si>
-    <t>17900829</t>
-  </si>
-  <si>
-    <t>31944</t>
-  </si>
-  <si>
-    <t>41529.09</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>台灣水泥股份有限公司</t>
@@ -5737,13 +5704,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>194</v>
       </c>
@@ -5754,35 +5721,75 @@
         <v>196</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>1040273</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>218</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>129</v>
       </c>
@@ -5790,20 +5797,40 @@
         <v>198</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>447534</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M3" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>130</v>
       </c>
@@ -5811,20 +5838,40 @@
         <v>199</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>3052811</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>218</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M4" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>131</v>
       </c>
@@ -5832,20 +5879,40 @@
         <v>199</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>2348779</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M5" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>132</v>
       </c>
@@ -5853,20 +5920,40 @@
         <v>199</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>1034227</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>218</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M6" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>133</v>
       </c>
@@ -5874,20 +5961,40 @@
         <v>200</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>21856803</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>218</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M7" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>134</v>
       </c>
@@ -5895,20 +6002,40 @@
         <v>201</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>208922</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M8" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>135</v>
       </c>
@@ -5916,20 +6043,40 @@
         <v>202</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>651253</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M9" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>136</v>
       </c>
@@ -5937,20 +6084,40 @@
         <v>203</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>257</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M10" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>137</v>
       </c>
@@ -5958,20 +6125,40 @@
         <v>204</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>7585390</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>218</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M11" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>138</v>
       </c>
@@ -5979,20 +6166,40 @@
         <v>205</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>28392758</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>218</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M12" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>139</v>
       </c>
@@ -6000,20 +6207,40 @@
         <v>206</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>1364309</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>218</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M13" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>140</v>
       </c>
@@ -6021,20 +6248,40 @@
         <v>207</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>141</v>
       </c>
@@ -6042,66 +6289,122 @@
         <v>198</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F15" s="2">
-        <v>16.8</v>
-      </c>
-      <c r="G15" s="2">
         <v>497.28</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>142</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F16" s="2">
-        <v>577.49</v>
+        <v>17093.7</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>218</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>143</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>774920</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>144</v>
       </c>
@@ -6109,20 +6412,40 @@
         <v>198</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <v>62537235</v>
+      </c>
       <c r="G18" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>218</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>145</v>
       </c>
@@ -6130,20 +6453,40 @@
         <v>198</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <v>17900829</v>
+      </c>
       <c r="G19" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>218</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>146</v>
       </c>
@@ -6151,20 +6494,40 @@
         <v>208</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>858285</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M20" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>147</v>
       </c>
@@ -6172,20 +6535,40 @@
         <v>199</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>655276</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M21" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>148</v>
       </c>
@@ -6193,20 +6576,40 @@
         <v>199</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
+      <c r="F22" s="2">
         <v>16485</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M22" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>149</v>
       </c>
@@ -6214,20 +6617,40 @@
         <v>199</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
+      <c r="F23" s="2">
         <v>208830</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M23" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>151</v>
       </c>
@@ -6235,20 +6658,40 @@
         <v>199</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
+      <c r="F24" s="2">
         <v>14320</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M24" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>152</v>
       </c>
@@ -6256,20 +6699,40 @@
         <v>205</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+      <c r="F25" s="2">
         <v>16443</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M25" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>153</v>
       </c>
@@ -6277,20 +6740,40 @@
         <v>209</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2">
+        <v>31944</v>
+      </c>
       <c r="G26" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>218</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M26" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>154</v>
       </c>
@@ -6298,19 +6781,37 @@
         <v>198</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>216</v>
+      <c r="F27" s="2">
+        <v>41529.09</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M27" s="2">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6334,13 +6835,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -6372,7 +6873,7 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>83</v>
@@ -6384,13 +6885,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="G2" s="2">
         <v>783640</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>150</v>
@@ -6416,7 +6917,7 @@
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>83</v>
@@ -6428,13 +6929,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="G3" s="2">
         <v>22440</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>150</v>
@@ -6460,7 +6961,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>83</v>
@@ -6472,13 +6973,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="G4" s="2">
         <v>8110</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>150</v>
@@ -6504,7 +7005,7 @@
         <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>83</v>
@@ -6516,13 +7017,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>150</v>
@@ -6548,7 +7049,7 @@
         <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>83</v>
@@ -6560,13 +7061,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="G6" s="2">
         <v>10420</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>150</v>
@@ -6592,7 +7093,7 @@
         <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>83</v>
@@ -6604,13 +7105,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="G7" s="2">
         <v>51400</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>150</v>
@@ -6636,7 +7137,7 @@
         <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>83</v>
@@ -6648,13 +7149,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="G8" s="2">
         <v>486230</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>150</v>
@@ -6680,7 +7181,7 @@
         <v>168</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>83</v>
@@ -6692,13 +7193,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>150</v>
@@ -6724,7 +7225,7 @@
         <v>169</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>83</v>
@@ -6736,13 +7237,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="G10" s="2">
         <v>34590</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>150</v>
@@ -6768,7 +7269,7 @@
         <v>170</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>84</v>
@@ -6780,13 +7281,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="G11" s="2">
         <v>274320</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>150</v>
@@ -6812,7 +7313,7 @@
         <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>83</v>
@@ -6824,13 +7325,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>150</v>
@@ -6856,25 +7357,25 @@
         <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>150</v>
@@ -6910,7 +7411,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>83</v>
@@ -6922,7 +7423,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="G1" s="1">
         <v>10</v>
@@ -6933,7 +7434,7 @@
         <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>83</v>
@@ -6948,7 +7449,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -6966,10 +7467,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>83</v>
@@ -6980,10 +7481,10 @@
         <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>83</v>
@@ -6994,10 +7495,10 @@
         <v>198</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>83</v>
@@ -7008,10 +7509,10 @@
         <v>199</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>83</v>
@@ -7022,10 +7523,10 @@
         <v>200</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>83</v>
@@ -7036,10 +7537,10 @@
         <v>201</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>83</v>
@@ -7050,10 +7551,10 @@
         <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>83</v>
@@ -7064,10 +7565,10 @@
         <v>203</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>84</v>
@@ -7078,10 +7579,10 @@
         <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>84</v>
@@ -7092,10 +7593,10 @@
         <v>205</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>84</v>
@@ -7106,10 +7607,10 @@
         <v>206</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>83</v>
@@ -7120,10 +7621,10 @@
         <v>207</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>83</v>
@@ -7134,10 +7635,10 @@
         <v>208</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>83</v>
@@ -7148,10 +7649,10 @@
         <v>209</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>83</v>
@@ -7162,10 +7663,10 @@
         <v>210</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>83</v>
@@ -7176,10 +7677,10 @@
         <v>211</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>84</v>
@@ -7190,10 +7691,10 @@
         <v>212</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>84</v>
@@ -7204,10 +7705,10 @@
         <v>213</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>84</v>
@@ -7218,10 +7719,10 @@
         <v>214</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>84</v>
@@ -7232,10 +7733,10 @@
         <v>215</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>84</v>
@@ -7246,10 +7747,10 @@
         <v>216</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>83</v>
@@ -7260,10 +7761,10 @@
         <v>217</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>83</v>
@@ -7274,10 +7775,10 @@
         <v>218</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>83</v>
@@ -7298,22 +7799,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7321,22 +7822,22 @@
         <v>223</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7344,22 +7845,22 @@
         <v>224</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7367,22 +7868,22 @@
         <v>225</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -7403,19 +7904,19 @@
         <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7426,19 +7927,19 @@
         <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7449,19 +7950,19 @@
         <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7472,19 +7973,19 @@
         <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E4" s="2">
         <v>800000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7495,19 +7996,19 @@
         <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E5" s="2">
         <v>300000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7518,19 +8019,19 @@
         <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7541,19 +8042,19 @@
         <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E7" s="2">
         <v>120000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7564,19 +8065,19 @@
         <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E8" s="2">
         <v>134580</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7587,19 +8088,19 @@
         <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E9" s="2">
         <v>200000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7610,19 +8111,19 @@
         <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E10" s="2">
         <v>250320</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7633,14 +8134,14 @@
         <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G11" s="2"/>
     </row>

--- a/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="303">
   <si>
     <t>name</t>
   </si>
@@ -738,6 +738,9 @@
   </si>
   <si>
     <t>山隆通運股份有限公司</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>新光人壽</t>
@@ -7403,33 +7406,54 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G1" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>187</v>
       </c>
@@ -7445,11 +7469,32 @@
       <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="2">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>216</v>
+      <c r="H2" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="2">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -7467,10 +7512,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>83</v>
@@ -7481,10 +7526,10 @@
         <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>83</v>
@@ -7495,10 +7540,10 @@
         <v>198</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>83</v>
@@ -7509,10 +7554,10 @@
         <v>199</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>83</v>
@@ -7523,10 +7568,10 @@
         <v>200</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>83</v>
@@ -7537,10 +7582,10 @@
         <v>201</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>83</v>
@@ -7551,10 +7596,10 @@
         <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>83</v>
@@ -7565,10 +7610,10 @@
         <v>203</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>84</v>
@@ -7579,10 +7624,10 @@
         <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>84</v>
@@ -7593,10 +7638,10 @@
         <v>205</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>84</v>
@@ -7607,10 +7652,10 @@
         <v>206</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>83</v>
@@ -7621,10 +7666,10 @@
         <v>207</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>83</v>
@@ -7635,10 +7680,10 @@
         <v>208</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>83</v>
@@ -7649,10 +7694,10 @@
         <v>209</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>83</v>
@@ -7663,10 +7708,10 @@
         <v>210</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>83</v>
@@ -7677,10 +7722,10 @@
         <v>211</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>84</v>
@@ -7691,10 +7736,10 @@
         <v>212</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>84</v>
@@ -7705,10 +7750,10 @@
         <v>213</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>84</v>
@@ -7719,10 +7764,10 @@
         <v>214</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>84</v>
@@ -7733,10 +7778,10 @@
         <v>215</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>84</v>
@@ -7747,10 +7792,10 @@
         <v>216</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>83</v>
@@ -7761,10 +7806,10 @@
         <v>217</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>83</v>
@@ -7775,10 +7820,10 @@
         <v>218</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>83</v>
@@ -7799,22 +7844,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7822,22 +7867,22 @@
         <v>223</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7845,22 +7890,22 @@
         <v>224</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7868,22 +7913,22 @@
         <v>225</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -7904,19 +7949,19 @@
         <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7927,19 +7972,19 @@
         <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7950,19 +7995,19 @@
         <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7973,19 +8018,19 @@
         <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E4" s="2">
         <v>800000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7996,19 +8041,19 @@
         <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E5" s="2">
         <v>300000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8019,19 +8064,19 @@
         <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>233</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -8042,19 +8087,19 @@
         <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E7" s="2">
         <v>120000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8065,19 +8110,19 @@
         <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E8" s="2">
         <v>134580</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8088,19 +8133,19 @@
         <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E9" s="2">
         <v>200000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8111,19 +8156,19 @@
         <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E10" s="2">
         <v>250320</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -8134,14 +8179,14 @@
         <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G11" s="2"/>
     </row>

--- a/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="304">
   <si>
     <t>name</t>
   </si>
@@ -743,27 +743,30 @@
     <t>otherbonds</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>新光人壽</t>
   </si>
   <si>
+    <t>中華郵政</t>
+  </si>
+  <si>
+    <t>中國人壽</t>
+  </si>
+  <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
+    <t>三商美邦人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
     <t>真意終身還本保險</t>
   </si>
   <si>
-    <t>中華郵政</t>
-  </si>
-  <si>
-    <t>中國人壽</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>三商美邦人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
     <t>百年長青0%終身壽險</t>
   </si>
   <si>
@@ -812,124 +815,124 @@
     <t>終身還本二年型</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>借款</t>
   </si>
   <si>
     <t>隆霖網路科技股份有限公司彰化縣溪州鄕慶平路30號2樓</t>
   </si>
   <si>
-    <t>75000000</t>
+    <t>隆霖網路科技股份有限公司彰化縣溪州鄉慶平路30號2樓</t>
+  </si>
+  <si>
+    <t>全家福通訊科技股份有限公司彰化縣溪州鄉中山路3段270巷11號1樓</t>
   </si>
   <si>
     <t>98年07月27日</t>
   </si>
   <si>
+    <t>102年10月28日</t>
+  </si>
+  <si>
+    <t>102年09月11曰</t>
+  </si>
+  <si>
     <t>借貸</t>
   </si>
   <si>
-    <t>隆霖網路科技股份有限公司彰化縣溪州鄉慶平路30號2樓</t>
-  </si>
-  <si>
-    <t>全家福通訊科技股份有限公司彰化縣溪州鄉中山路3段270巷11號1樓</t>
-  </si>
-  <si>
-    <t>342200000</t>
-  </si>
-  <si>
-    <t>791500000</t>
-  </si>
-  <si>
-    <t>102年10月28日</t>
-  </si>
-  <si>
-    <t>102年09月11曰</t>
-  </si>
-  <si>
     <t>股東往來</t>
   </si>
   <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>任豐企業股份有限公司</t>
   </si>
   <si>
+    <t>聯華電信股份有限公司</t>
+  </si>
+  <si>
+    <t>埤頭液化煤氣行</t>
+  </si>
+  <si>
+    <t>豐宜實業股份有限公司</t>
+  </si>
+  <si>
+    <t>六八煤氣行</t>
+  </si>
+  <si>
+    <t>全家福通訊科技股份有限公司</t>
+  </si>
+  <si>
+    <t>威寶電信股份有限公司</t>
+  </si>
+  <si>
     <t>彰化縣西德里舜耕路47號</t>
   </si>
   <si>
-    <t>1600000</t>
+    <t>臺北市舊宗路2段105號4樓</t>
+  </si>
+  <si>
+    <t>彰化縣復興路12號</t>
+  </si>
+  <si>
+    <t>高雄市崙北巷11號</t>
+  </si>
+  <si>
+    <t>彰化縣慶平路83號</t>
+  </si>
+  <si>
+    <t>彰化縣中山路3段270巷11號1樓</t>
+  </si>
+  <si>
+    <t>臺北市南京東路五段99號10樓</t>
   </si>
   <si>
     <t>78年04月20日</t>
   </si>
   <si>
+    <t>94年01月13曰</t>
+  </si>
+  <si>
+    <t>72年04月18日</t>
+  </si>
+  <si>
+    <t>86年02月19日</t>
+  </si>
+  <si>
+    <t>91年10月23日</t>
+  </si>
+  <si>
+    <t>74年04月20日</t>
+  </si>
+  <si>
+    <t>98年05月19日</t>
+  </si>
+  <si>
+    <t>100年12月14日</t>
+  </si>
+  <si>
     <t>合資</t>
   </si>
   <si>
-    <t>聯華電信股份有限公司</t>
-  </si>
-  <si>
-    <t>埤頭液化煤氣行</t>
-  </si>
-  <si>
-    <t>豐宜實業股份有限公司</t>
-  </si>
-  <si>
-    <t>六八煤氣行</t>
-  </si>
-  <si>
-    <t>全家福通訊科技股份有限公司</t>
-  </si>
-  <si>
-    <t>威寶電信股份有限公司</t>
-  </si>
-  <si>
-    <t>臺北市舊宗路2段105號4樓</t>
-  </si>
-  <si>
-    <t>彰化縣復興路12號</t>
-  </si>
-  <si>
-    <t>高雄市崙北巷11號</t>
-  </si>
-  <si>
-    <t>彰化縣慶平路83號</t>
-  </si>
-  <si>
-    <t>彰化縣中山路3段270巷11號1樓</t>
-  </si>
-  <si>
-    <t>臺北市南京東路五段99號10樓</t>
-  </si>
-  <si>
-    <t>臺北市南京東路五段99號</t>
-  </si>
-  <si>
-    <t>94年01月13曰</t>
-  </si>
-  <si>
-    <t>72年04月18日</t>
-  </si>
-  <si>
-    <t>86年02月19日</t>
-  </si>
-  <si>
-    <t>91年10月23日</t>
-  </si>
-  <si>
-    <t>74年04月20日</t>
-  </si>
-  <si>
-    <t>98年05月19日</t>
-  </si>
-  <si>
-    <t>100年12月14日</t>
-  </si>
-  <si>
-    <t>100年12月</t>
-  </si>
-  <si>
     <t>合夥</t>
   </si>
   <si>
     <t>減資</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -7504,150 +7507,360 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>198</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>199</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>200</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>201</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>203</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>205</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>206</v>
       </c>
@@ -7655,13 +7868,34 @@
         <v>242</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>207</v>
       </c>
@@ -7669,13 +7903,34 @@
         <v>242</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K12" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>208</v>
       </c>
@@ -7683,13 +7938,34 @@
         <v>242</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K13" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>209</v>
       </c>
@@ -7697,13 +7973,34 @@
         <v>242</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>210</v>
       </c>
@@ -7711,13 +8008,34 @@
         <v>243</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>211</v>
       </c>
@@ -7725,13 +8043,34 @@
         <v>243</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>212</v>
       </c>
@@ -7739,13 +8078,34 @@
         <v>243</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>213</v>
       </c>
@@ -7753,13 +8113,34 @@
         <v>243</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>214</v>
       </c>
@@ -7767,13 +8148,34 @@
         <v>244</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>215</v>
       </c>
@@ -7781,13 +8183,34 @@
         <v>244</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>216</v>
       </c>
@@ -7795,13 +8218,34 @@
         <v>245</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>217</v>
       </c>
@@ -7809,13 +8253,34 @@
         <v>245</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>218</v>
       </c>
@@ -7823,10 +8288,31 @@
         <v>246</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>83</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K23" s="2">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7836,99 +8322,183 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>266</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>223</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
+      </c>
+      <c r="E2" s="2">
+        <v>75000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>274</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>224</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="E3" s="2">
+        <v>342200000</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>272</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>274</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N3" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>225</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
+      </c>
+      <c r="E4" s="2">
+        <v>791500000</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>273</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N4" s="2">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -7938,33 +8508,54 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>277</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>278</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>235</v>
       </c>
@@ -7972,22 +8563,43 @@
         <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>300</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>236</v>
       </c>
@@ -7995,7 +8607,7 @@
         <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>286</v>
@@ -8007,10 +8619,31 @@
         <v>293</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>300</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N3" s="2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>237</v>
       </c>
@@ -8018,10 +8651,10 @@
         <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E4" s="2">
         <v>800000</v>
@@ -8030,10 +8663,31 @@
         <v>294</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>300</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N4" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>238</v>
       </c>
@@ -8041,7 +8695,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>287</v>
@@ -8055,8 +8709,29 @@
       <c r="G5" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N5" s="2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>239</v>
       </c>
@@ -8064,22 +8739,43 @@
         <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>233</v>
+      <c r="E6" s="2">
+        <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>296</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>300</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N6" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>240</v>
       </c>
@@ -8087,7 +8783,7 @@
         <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>289</v>
@@ -8101,8 +8797,29 @@
       <c r="G7" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N7" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>241</v>
       </c>
@@ -8110,7 +8827,7 @@
         <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>286</v>
@@ -8122,10 +8839,31 @@
         <v>293</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>300</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N8" s="2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>242</v>
       </c>
@@ -8133,7 +8871,7 @@
         <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>290</v>
@@ -8145,10 +8883,31 @@
         <v>298</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>300</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N9" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>243</v>
       </c>
@@ -8156,7 +8915,7 @@
         <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>291</v>
@@ -8170,25 +8929,71 @@
       <c r="G10" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N10" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="E11" s="2">
+        <v>421070</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N11" s="2">
+        <v>244</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2013-11-01_財產申報表_tmp4cfc1.xlsx
@@ -12,16 +12,17 @@
     <sheet name="存款" sheetId="3" r:id="rId3"/>
     <sheet name="股票" sheetId="4" r:id="rId4"/>
     <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
-    <sheet name="保險" sheetId="6" r:id="rId6"/>
-    <sheet name="債權" sheetId="7" r:id="rId7"/>
-    <sheet name="事業投資" sheetId="8" r:id="rId8"/>
+    <sheet name="具有相當價值之財產" sheetId="6" r:id="rId6"/>
+    <sheet name="保險" sheetId="7" r:id="rId7"/>
+    <sheet name="債權" sheetId="8" r:id="rId8"/>
+    <sheet name="事業投資" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="307">
   <si>
     <t>name</t>
   </si>
@@ -741,6 +742,15 @@
   </si>
   <si>
     <t>otherbonds</t>
+  </si>
+  <si>
+    <t>珠寶</t>
+  </si>
+  <si>
+    <t>2150000</t>
+  </si>
+  <si>
+    <t>antique</t>
   </si>
   <si>
     <t>company</t>
@@ -7507,6 +7517,92 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>192</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" s="2">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7515,7 +7611,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -7550,16 +7646,16 @@
         <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>150</v>
@@ -7585,16 +7681,16 @@
         <v>198</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>150</v>
@@ -7620,16 +7716,16 @@
         <v>199</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>150</v>
@@ -7655,16 +7751,16 @@
         <v>200</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>150</v>
@@ -7690,16 +7786,16 @@
         <v>201</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>150</v>
@@ -7725,16 +7821,16 @@
         <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>150</v>
@@ -7760,16 +7856,16 @@
         <v>203</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>150</v>
@@ -7795,16 +7891,16 @@
         <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>150</v>
@@ -7830,16 +7926,16 @@
         <v>205</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>150</v>
@@ -7865,16 +7961,16 @@
         <v>206</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>150</v>
@@ -7900,16 +7996,16 @@
         <v>207</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>150</v>
@@ -7935,16 +8031,16 @@
         <v>208</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>150</v>
@@ -7970,16 +8066,16 @@
         <v>209</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>150</v>
@@ -8005,16 +8101,16 @@
         <v>210</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>150</v>
@@ -8040,16 +8136,16 @@
         <v>211</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>150</v>
@@ -8075,16 +8171,16 @@
         <v>212</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>150</v>
@@ -8110,16 +8206,16 @@
         <v>213</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>150</v>
@@ -8145,16 +8241,16 @@
         <v>214</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>150</v>
@@ -8180,16 +8276,16 @@
         <v>215</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>150</v>
@@ -8215,16 +8311,16 @@
         <v>216</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>150</v>
@@ -8250,16 +8346,16 @@
         <v>217</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>150</v>
@@ -8285,16 +8381,16 @@
         <v>218</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>150</v>
@@ -8320,7 +8416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N4"/>
   <sheetViews>
@@ -8330,13 +8426,13 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -8374,25 +8470,25 @@
         <v>223</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E2" s="2">
         <v>75000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>150</v>
@@ -8418,25 +8514,25 @@
         <v>224</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E3" s="2">
         <v>342200000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>150</v>
@@ -8462,25 +8558,25 @@
         <v>225</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E4" s="2">
         <v>791500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>150</v>
@@ -8506,7 +8602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
@@ -8519,10 +8615,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -8563,22 +8659,22 @@
         <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E2" s="2">
         <v>1600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>150</v>
@@ -8607,22 +8703,22 @@
         <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>150</v>
@@ -8651,22 +8747,22 @@
         <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E4" s="2">
         <v>800000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>150</v>
@@ -8695,22 +8791,22 @@
         <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E5" s="2">
         <v>300000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>150</v>
@@ -8739,22 +8835,22 @@
         <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>150</v>
@@ -8783,22 +8879,22 @@
         <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E7" s="2">
         <v>120000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>150</v>
@@ -8827,22 +8923,22 @@
         <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E8" s="2">
         <v>134580</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>150</v>
@@ -8871,22 +8967,22 @@
         <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E9" s="2">
         <v>200000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>150</v>
@@ -8915,22 +9011,22 @@
         <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E10" s="2">
         <v>250320</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>150</v>
@@ -8959,22 +9055,22 @@
         <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E11" s="2">
         <v>421070</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>150</v>
